--- a/sigrow/t1624_trendlines.xlsx
+++ b/sigrow/t1624_trendlines.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spence\Documents\Electronics\AVR_Research\sigrow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3C479C1-8C33-4EF9-A9B4-196FBAFA4610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28188ED-F61F-4759-B035-BF6EFE9A9624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20600"/>
+    <workbookView xWindow="0" yWindow="1220" windowWidth="38400" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -781,7 +795,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -8136,15 +8150,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>109630</xdr:colOff>
+      <xdr:colOff>144757</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>14941</xdr:rowOff>
+      <xdr:rowOff>31154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>423955</xdr:colOff>
+      <xdr:colOff>459082</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>37165</xdr:rowOff>
+      <xdr:rowOff>53378</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8468,11 +8482,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH2071"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI67" sqref="AI67"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M55" sqref="M51:AH55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8511,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <f>HEX2DEC(B2)</f>
+        <f t="shared" ref="C2:C33" si="0">HEX2DEC(B2)</f>
         <v>5534</v>
       </c>
       <c r="D2">
@@ -8569,53 +8583,53 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f>HEX2DEC(B3)</f>
+        <f t="shared" si="0"/>
         <v>5600</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">C3/400</f>
+        <f t="shared" ref="D3:D66" si="1">C3/400</f>
         <v>14</v>
       </c>
       <c r="E3">
         <v>5557</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="1">E3/400</f>
+        <f t="shared" ref="F3:F66" si="2">E3/400</f>
         <v>13.8925</v>
       </c>
       <c r="G3">
         <v>5557</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="2">G3/400</f>
+        <f t="shared" ref="H3:H66" si="3">G3/400</f>
         <v>13.8925</v>
       </c>
       <c r="I3">
         <v>5407</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="3">I3/400</f>
+        <f t="shared" ref="J3:J66" si="4">I3/400</f>
         <v>13.5175</v>
       </c>
       <c r="K3">
         <v>5518</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="4">K3/400</f>
+        <f t="shared" ref="L3:L66" si="5">K3/400</f>
         <v>13.795</v>
       </c>
       <c r="M3">
         <v>5344</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="5">M3/400</f>
+        <f t="shared" ref="N3:N66" si="6">M3/400</f>
         <v>13.36</v>
       </c>
       <c r="O3">
         <v>5792</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="6">O3/400</f>
+        <f t="shared" ref="P3:P66" si="7">O3/400</f>
         <v>14.48</v>
       </c>
     </row>
@@ -8627,53 +8641,53 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <f>HEX2DEC(B4)</f>
+        <f t="shared" si="0"/>
         <v>5671</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.1775</v>
       </c>
       <c r="E4">
         <v>5632</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.08</v>
       </c>
       <c r="G4">
         <v>5632</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.08</v>
       </c>
       <c r="I4">
         <v>5475</v>
       </c>
       <c r="J4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.6875</v>
       </c>
       <c r="K4">
         <v>5582</v>
       </c>
       <c r="L4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.955</v>
       </c>
       <c r="M4">
         <v>5408</v>
       </c>
       <c r="N4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.52</v>
       </c>
       <c r="O4">
         <v>5856</v>
       </c>
       <c r="P4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.64</v>
       </c>
     </row>
@@ -8685,53 +8699,53 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <f>HEX2DEC(B5)</f>
+        <f t="shared" si="0"/>
         <v>5744</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.36</v>
       </c>
       <c r="E5">
         <v>5696</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.24</v>
       </c>
       <c r="G5">
         <v>5696</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.24</v>
       </c>
       <c r="I5">
         <v>5538</v>
       </c>
       <c r="J5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.845000000000001</v>
       </c>
       <c r="K5">
         <v>5650</v>
       </c>
       <c r="L5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.125</v>
       </c>
       <c r="M5">
         <v>5472</v>
       </c>
       <c r="N5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.68</v>
       </c>
       <c r="O5">
         <v>5922</v>
       </c>
       <c r="P5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.805</v>
       </c>
     </row>
@@ -8743,53 +8757,53 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <f>HEX2DEC(B6)</f>
+        <f t="shared" si="0"/>
         <v>5812</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.53</v>
       </c>
       <c r="E6">
         <v>5762</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.404999999999999</v>
       </c>
       <c r="G6">
         <v>5762</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.404999999999999</v>
       </c>
       <c r="I6">
         <v>5605</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.012499999999999</v>
       </c>
       <c r="K6">
         <v>5705</v>
       </c>
       <c r="L6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.262499999999999</v>
       </c>
       <c r="M6">
         <v>5536</v>
       </c>
       <c r="N6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.84</v>
       </c>
       <c r="O6">
         <v>5985</v>
       </c>
       <c r="P6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9625</v>
       </c>
     </row>
@@ -8801,53 +8815,53 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <f>HEX2DEC(B7)</f>
+        <f t="shared" si="0"/>
         <v>5885</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.7125</v>
       </c>
       <c r="E7">
         <v>5837</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.592499999999999</v>
       </c>
       <c r="G7">
         <v>5837</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.592499999999999</v>
       </c>
       <c r="I7">
         <v>5664</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.16</v>
       </c>
       <c r="K7">
         <v>5776</v>
       </c>
       <c r="L7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.44</v>
       </c>
       <c r="M7">
         <v>5600</v>
       </c>
       <c r="N7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="O7">
         <v>6058</v>
       </c>
       <c r="P7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.145</v>
       </c>
     </row>
@@ -8859,53 +8873,53 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <f>HEX2DEC(B8)</f>
+        <f t="shared" si="0"/>
         <v>5952</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.88</v>
       </c>
       <c r="E8">
         <v>5889</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.7225</v>
       </c>
       <c r="G8">
         <v>5889</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.7225</v>
       </c>
       <c r="I8">
         <v>5741</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.352499999999999</v>
       </c>
       <c r="K8">
         <v>5837</v>
       </c>
       <c r="L8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.592499999999999</v>
       </c>
       <c r="M8">
         <v>5656</v>
       </c>
       <c r="N8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.14</v>
       </c>
       <c r="O8">
         <v>6125</v>
       </c>
       <c r="P8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.3125</v>
       </c>
     </row>
@@ -8917,53 +8931,53 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <f>HEX2DEC(B9)</f>
+        <f t="shared" si="0"/>
         <v>6018</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.045</v>
       </c>
       <c r="E9">
         <v>5960</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.9</v>
       </c>
       <c r="G9">
         <v>5960</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.9</v>
       </c>
       <c r="I9">
         <v>5804</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.51</v>
       </c>
       <c r="K9">
         <v>5901</v>
       </c>
       <c r="L9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.7525</v>
       </c>
       <c r="M9">
         <v>5721</v>
       </c>
       <c r="N9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.3025</v>
       </c>
       <c r="O9">
         <v>6199</v>
       </c>
       <c r="P9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.4975</v>
       </c>
     </row>
@@ -8975,53 +8989,53 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <f>HEX2DEC(B10)</f>
+        <f t="shared" si="0"/>
         <v>6080</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.2</v>
       </c>
       <c r="E10">
         <v>6037</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.092499999999999</v>
       </c>
       <c r="G10">
         <v>6037</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.092499999999999</v>
       </c>
       <c r="I10">
         <v>5877</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.692500000000001</v>
       </c>
       <c r="K10">
         <v>5965</v>
       </c>
       <c r="L10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.9125</v>
       </c>
       <c r="M10">
         <v>5791</v>
       </c>
       <c r="N10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.477499999999999</v>
       </c>
       <c r="O10">
         <v>6269</v>
       </c>
       <c r="P10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.672499999999999</v>
       </c>
     </row>
@@ -9033,53 +9047,53 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <f>HEX2DEC(B11)</f>
+        <f t="shared" si="0"/>
         <v>6144</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.36</v>
       </c>
       <c r="E11">
         <v>6107</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.2675</v>
       </c>
       <c r="G11">
         <v>6107</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.2675</v>
       </c>
       <c r="I11">
         <v>5936</v>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.84</v>
       </c>
       <c r="K11">
         <v>6032</v>
       </c>
       <c r="L11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.08</v>
       </c>
       <c r="M11">
         <v>5856</v>
       </c>
       <c r="N11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.64</v>
       </c>
       <c r="O11">
         <v>6338</v>
       </c>
       <c r="P11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.845000000000001</v>
       </c>
     </row>
@@ -9091,53 +9105,53 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <f>HEX2DEC(B12)</f>
+        <f t="shared" si="0"/>
         <v>6208</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.52</v>
       </c>
       <c r="E12">
         <v>6162</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.404999999999999</v>
       </c>
       <c r="G12">
         <v>6162</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.404999999999999</v>
       </c>
       <c r="I12">
         <v>5989</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.9725</v>
       </c>
       <c r="K12">
         <v>6101</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.2525</v>
       </c>
       <c r="M12">
         <v>5919</v>
       </c>
       <c r="N12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.797499999999999</v>
       </c>
       <c r="O12">
         <v>6400</v>
       </c>
       <c r="P12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
     </row>
@@ -9149,53 +9163,53 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <f>HEX2DEC(B13)</f>
+        <f t="shared" si="0"/>
         <v>6273</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.682499999999999</v>
       </c>
       <c r="E13">
         <v>6232</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.58</v>
       </c>
       <c r="G13">
         <v>6232</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.58</v>
       </c>
       <c r="I13">
         <v>6052</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.13</v>
       </c>
       <c r="K13">
         <v>6168</v>
       </c>
       <c r="L13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.42</v>
       </c>
       <c r="M13">
         <v>5984</v>
       </c>
       <c r="N13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.96</v>
       </c>
       <c r="O13">
         <v>6470</v>
       </c>
       <c r="P13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16.175000000000001</v>
       </c>
     </row>
@@ -9207,53 +9221,53 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <f>HEX2DEC(B14)</f>
+        <f t="shared" si="0"/>
         <v>6341</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.852499999999999</v>
       </c>
       <c r="E14">
         <v>6294</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.734999999999999</v>
       </c>
       <c r="G14">
         <v>6294</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.734999999999999</v>
       </c>
       <c r="I14">
         <v>6126</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.315</v>
       </c>
       <c r="K14">
         <v>6237</v>
       </c>
       <c r="L14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.592499999999999</v>
       </c>
       <c r="M14">
         <v>6048</v>
       </c>
       <c r="N14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.12</v>
       </c>
       <c r="O14">
         <v>6529</v>
       </c>
       <c r="P14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16.322500000000002</v>
       </c>
     </row>
@@ -9265,53 +9279,53 @@
         <v>27</v>
       </c>
       <c r="C15">
-        <f>HEX2DEC(B15)</f>
+        <f t="shared" si="0"/>
         <v>6410</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.024999999999999</v>
       </c>
       <c r="E15">
         <v>6368</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.92</v>
       </c>
       <c r="G15">
         <v>6368</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.92</v>
       </c>
       <c r="I15">
         <v>6188</v>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.47</v>
       </c>
       <c r="K15">
         <v>6303</v>
       </c>
       <c r="L15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.7575</v>
       </c>
       <c r="M15">
         <v>6115</v>
       </c>
       <c r="N15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.2875</v>
       </c>
       <c r="O15">
         <v>6607</v>
       </c>
       <c r="P15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16.517499999999998</v>
       </c>
     </row>
@@ -9323,53 +9337,53 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <f>HEX2DEC(B16)</f>
+        <f t="shared" si="0"/>
         <v>6472</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.18</v>
       </c>
       <c r="E16">
         <v>6418</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.045000000000002</v>
       </c>
       <c r="G16">
         <v>6418</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.045000000000002</v>
       </c>
       <c r="I16">
         <v>6272</v>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.68</v>
       </c>
       <c r="K16">
         <v>6373</v>
       </c>
       <c r="L16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.932499999999999</v>
       </c>
       <c r="M16">
         <v>6176</v>
       </c>
       <c r="N16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.44</v>
       </c>
       <c r="O16">
         <v>6656</v>
       </c>
       <c r="P16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16.64</v>
       </c>
     </row>
@@ -9381,53 +9395,53 @@
         <v>31</v>
       </c>
       <c r="C17">
-        <f>HEX2DEC(B17)</f>
+        <f t="shared" si="0"/>
         <v>6543</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.357500000000002</v>
       </c>
       <c r="E17">
         <v>6487</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.217500000000001</v>
       </c>
       <c r="G17">
         <v>6487</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.217500000000001</v>
       </c>
       <c r="I17">
         <v>6336</v>
       </c>
       <c r="J17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.84</v>
       </c>
       <c r="K17">
         <v>6442</v>
       </c>
       <c r="L17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.105</v>
       </c>
       <c r="M17">
         <v>6240</v>
       </c>
       <c r="N17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.6</v>
       </c>
       <c r="O17">
         <v>6728</v>
       </c>
       <c r="P17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16.82</v>
       </c>
     </row>
@@ -9439,53 +9453,53 @@
         <v>33</v>
       </c>
       <c r="C18">
-        <f>HEX2DEC(B18)</f>
+        <f t="shared" si="0"/>
         <v>6624</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.559999999999999</v>
       </c>
       <c r="E18">
         <v>6560</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.399999999999999</v>
       </c>
       <c r="G18">
         <v>6560</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.399999999999999</v>
       </c>
       <c r="I18">
         <v>6398</v>
       </c>
       <c r="J18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.994999999999999</v>
       </c>
       <c r="K18">
         <v>6519</v>
       </c>
       <c r="L18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.297499999999999</v>
       </c>
       <c r="M18">
         <v>6305</v>
       </c>
       <c r="N18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.762499999999999</v>
       </c>
       <c r="O18">
         <v>6789</v>
       </c>
       <c r="P18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16.9725</v>
       </c>
     </row>
@@ -9497,53 +9511,53 @@
         <v>35</v>
       </c>
       <c r="C19">
-        <f>HEX2DEC(B19)</f>
+        <f t="shared" si="0"/>
         <v>6691</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.727499999999999</v>
       </c>
       <c r="E19">
         <v>6630</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.574999999999999</v>
       </c>
       <c r="G19">
         <v>6630</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.574999999999999</v>
       </c>
       <c r="I19">
         <v>6463</v>
       </c>
       <c r="J19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.157499999999999</v>
       </c>
       <c r="K19">
         <v>6586</v>
       </c>
       <c r="L19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.465</v>
       </c>
       <c r="M19">
         <v>6379</v>
       </c>
       <c r="N19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.9475</v>
       </c>
       <c r="O19">
         <v>6864</v>
       </c>
       <c r="P19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17.16</v>
       </c>
     </row>
@@ -9555,53 +9569,53 @@
         <v>37</v>
       </c>
       <c r="C20">
-        <f>HEX2DEC(B20)</f>
+        <f t="shared" si="0"/>
         <v>6769</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.922499999999999</v>
       </c>
       <c r="E20">
         <v>6699</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.747499999999999</v>
       </c>
       <c r="G20">
         <v>6699</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.747499999999999</v>
       </c>
       <c r="I20">
         <v>6528</v>
       </c>
       <c r="J20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.32</v>
       </c>
       <c r="K20">
         <v>6631</v>
       </c>
       <c r="L20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.577500000000001</v>
       </c>
       <c r="M20">
         <v>6442</v>
       </c>
       <c r="N20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.105</v>
       </c>
       <c r="O20">
         <v>6944</v>
       </c>
       <c r="P20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17.36</v>
       </c>
     </row>
@@ -9613,53 +9627,53 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <f>HEX2DEC(B21)</f>
+        <f t="shared" si="0"/>
         <v>6842</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.105</v>
       </c>
       <c r="E21">
         <v>6771</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.927499999999998</v>
       </c>
       <c r="G21">
         <v>6771</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.927499999999998</v>
       </c>
       <c r="I21">
         <v>6592</v>
       </c>
       <c r="J21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.48</v>
       </c>
       <c r="K21">
         <v>6699</v>
       </c>
       <c r="L21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.747499999999999</v>
       </c>
       <c r="M21">
         <v>6511</v>
       </c>
       <c r="N21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.2775</v>
       </c>
       <c r="O21">
         <v>7014</v>
       </c>
       <c r="P21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17.535</v>
       </c>
     </row>
@@ -9671,53 +9685,53 @@
         <v>41</v>
       </c>
       <c r="C22">
-        <f>HEX2DEC(B22)</f>
+        <f t="shared" si="0"/>
         <v>6912</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.28</v>
       </c>
       <c r="E22">
         <v>6835</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.087499999999999</v>
       </c>
       <c r="G22">
         <v>6835</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.087499999999999</v>
       </c>
       <c r="I22">
         <v>6655</v>
       </c>
       <c r="J22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.637499999999999</v>
       </c>
       <c r="K22">
         <v>6784</v>
       </c>
       <c r="L22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.96</v>
       </c>
       <c r="M22">
         <v>6568</v>
       </c>
       <c r="N22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.420000000000002</v>
       </c>
       <c r="O22">
         <v>7096</v>
       </c>
       <c r="P22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17.739999999999998</v>
       </c>
     </row>
@@ -9729,53 +9743,53 @@
         <v>43</v>
       </c>
       <c r="C23">
-        <f>HEX2DEC(B23)</f>
+        <f t="shared" si="0"/>
         <v>6979</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.447500000000002</v>
       </c>
       <c r="E23">
         <v>6910</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.274999999999999</v>
       </c>
       <c r="G23">
         <v>6910</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.274999999999999</v>
       </c>
       <c r="I23">
         <v>6716</v>
       </c>
       <c r="J23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.79</v>
       </c>
       <c r="K23">
         <v>6848</v>
       </c>
       <c r="L23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.12</v>
       </c>
       <c r="M23">
         <v>6640</v>
       </c>
       <c r="N23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.600000000000001</v>
       </c>
       <c r="O23">
         <v>7168</v>
       </c>
       <c r="P23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17.920000000000002</v>
       </c>
     </row>
@@ -9787,53 +9801,53 @@
         <v>45</v>
       </c>
       <c r="C24">
-        <f>HEX2DEC(B24)</f>
+        <f t="shared" si="0"/>
         <v>7065</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.662500000000001</v>
       </c>
       <c r="E24">
         <v>6976</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.440000000000001</v>
       </c>
       <c r="G24">
         <v>6976</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.440000000000001</v>
       </c>
       <c r="I24">
         <v>6769</v>
       </c>
       <c r="J24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.922499999999999</v>
       </c>
       <c r="K24">
         <v>6925</v>
       </c>
       <c r="L24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.3125</v>
       </c>
       <c r="M24">
         <v>6717</v>
       </c>
       <c r="N24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.7925</v>
       </c>
       <c r="O24">
         <v>7232</v>
       </c>
       <c r="P24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18.079999999999998</v>
       </c>
     </row>
@@ -9845,53 +9859,53 @@
         <v>47</v>
       </c>
       <c r="C25">
-        <f>HEX2DEC(B25)</f>
+        <f t="shared" si="0"/>
         <v>7136</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.84</v>
       </c>
       <c r="E25">
         <v>7045</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.612500000000001</v>
       </c>
       <c r="G25">
         <v>7045</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.612500000000001</v>
       </c>
       <c r="I25">
         <v>6833</v>
       </c>
       <c r="J25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.0825</v>
       </c>
       <c r="K25">
         <v>6992</v>
       </c>
       <c r="L25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.48</v>
       </c>
       <c r="M25">
         <v>6784</v>
       </c>
       <c r="N25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.96</v>
       </c>
       <c r="O25">
         <v>7298</v>
       </c>
       <c r="P25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18.245000000000001</v>
       </c>
     </row>
@@ -9903,53 +9917,53 @@
         <v>49</v>
       </c>
       <c r="C26">
-        <f>HEX2DEC(B26)</f>
+        <f t="shared" si="0"/>
         <v>7207</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.017499999999998</v>
       </c>
       <c r="E26">
         <v>7120</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.8</v>
       </c>
       <c r="G26">
         <v>7120</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.8</v>
       </c>
       <c r="I26">
         <v>6894</v>
       </c>
       <c r="J26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.234999999999999</v>
       </c>
       <c r="K26">
         <v>7061</v>
       </c>
       <c r="L26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.6525</v>
       </c>
       <c r="M26">
         <v>6848</v>
       </c>
       <c r="N26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.12</v>
       </c>
       <c r="O26">
         <v>7367</v>
       </c>
       <c r="P26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18.4175</v>
       </c>
     </row>
@@ -9961,53 +9975,53 @@
         <v>51</v>
       </c>
       <c r="C27">
-        <f>HEX2DEC(B27)</f>
+        <f t="shared" si="0"/>
         <v>7281</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.202500000000001</v>
       </c>
       <c r="E27">
         <v>7192</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.98</v>
       </c>
       <c r="G27">
         <v>7192</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.98</v>
       </c>
       <c r="I27">
         <v>6960</v>
       </c>
       <c r="J27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.399999999999999</v>
       </c>
       <c r="K27">
         <v>7127</v>
       </c>
       <c r="L27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.817499999999999</v>
       </c>
       <c r="M27">
         <v>6913</v>
       </c>
       <c r="N27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.282499999999999</v>
       </c>
       <c r="O27">
         <v>7445</v>
       </c>
       <c r="P27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18.612500000000001</v>
       </c>
     </row>
@@ -10019,53 +10033,53 @@
         <v>53</v>
       </c>
       <c r="C28">
-        <f>HEX2DEC(B28)</f>
+        <f t="shared" si="0"/>
         <v>7346</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.364999999999998</v>
       </c>
       <c r="E28">
         <v>7237</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.092500000000001</v>
       </c>
       <c r="G28">
         <v>7237</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.092500000000001</v>
       </c>
       <c r="I28">
         <v>7040</v>
       </c>
       <c r="J28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.600000000000001</v>
       </c>
       <c r="K28">
         <v>7200</v>
       </c>
       <c r="L28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="M28">
         <v>6980</v>
       </c>
       <c r="N28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.45</v>
       </c>
       <c r="O28">
         <v>7517</v>
       </c>
       <c r="P28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18.7925</v>
       </c>
     </row>
@@ -10077,53 +10091,53 @@
         <v>55</v>
       </c>
       <c r="C29">
-        <f>HEX2DEC(B29)</f>
+        <f t="shared" si="0"/>
         <v>7421</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.552499999999998</v>
       </c>
       <c r="E29">
         <v>7309</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.272500000000001</v>
       </c>
       <c r="G29">
         <v>7309</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.272500000000001</v>
       </c>
       <c r="I29">
         <v>7104</v>
       </c>
       <c r="J29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.760000000000002</v>
       </c>
       <c r="K29">
         <v>7264</v>
       </c>
       <c r="L29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.16</v>
       </c>
       <c r="M29">
         <v>7048</v>
       </c>
       <c r="N29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.62</v>
       </c>
       <c r="O29">
         <v>7589</v>
       </c>
       <c r="P29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18.9725</v>
       </c>
     </row>
@@ -10135,53 +10149,53 @@
         <v>57</v>
       </c>
       <c r="C30">
-        <f>HEX2DEC(B30)</f>
+        <f t="shared" si="0"/>
         <v>7488</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.72</v>
       </c>
       <c r="E30">
         <v>7372</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.43</v>
       </c>
       <c r="G30">
         <v>7372</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.43</v>
       </c>
       <c r="I30">
         <v>7176</v>
       </c>
       <c r="J30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.940000000000001</v>
       </c>
       <c r="K30">
         <v>7336</v>
       </c>
       <c r="L30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.34</v>
       </c>
       <c r="M30">
         <v>7111</v>
       </c>
       <c r="N30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.7775</v>
       </c>
       <c r="O30">
         <v>7661</v>
       </c>
       <c r="P30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19.1525</v>
       </c>
     </row>
@@ -10193,53 +10207,53 @@
         <v>59</v>
       </c>
       <c r="C31">
-        <f>HEX2DEC(B31)</f>
+        <f t="shared" si="0"/>
         <v>7558</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.895</v>
       </c>
       <c r="E31">
         <v>7448</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.62</v>
       </c>
       <c r="G31">
         <v>7448</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.62</v>
       </c>
       <c r="I31">
         <v>7241</v>
       </c>
       <c r="J31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.102499999999999</v>
       </c>
       <c r="K31">
         <v>7405</v>
       </c>
       <c r="L31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.512499999999999</v>
       </c>
       <c r="M31">
         <v>7178</v>
       </c>
       <c r="N31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.945</v>
       </c>
       <c r="O31">
         <v>7742</v>
       </c>
       <c r="P31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19.355</v>
       </c>
     </row>
@@ -10251,53 +10265,53 @@
         <v>61</v>
       </c>
       <c r="C32">
-        <f>HEX2DEC(B32)</f>
+        <f t="shared" si="0"/>
         <v>7618</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.045000000000002</v>
       </c>
       <c r="E32">
         <v>7520</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.8</v>
       </c>
       <c r="G32">
         <v>7520</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.8</v>
       </c>
       <c r="I32">
         <v>7307</v>
       </c>
       <c r="J32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.267499999999998</v>
       </c>
       <c r="K32">
         <v>7474</v>
       </c>
       <c r="L32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.684999999999999</v>
       </c>
       <c r="M32">
         <v>7232</v>
       </c>
       <c r="N32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.079999999999998</v>
       </c>
       <c r="O32">
         <v>7804</v>
       </c>
       <c r="P32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19.510000000000002</v>
       </c>
     </row>
@@ -10309,53 +10323,53 @@
         <v>63</v>
       </c>
       <c r="C33">
-        <f>HEX2DEC(B33)</f>
+        <f t="shared" si="0"/>
         <v>7696</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.239999999999998</v>
       </c>
       <c r="E33">
         <v>7588</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.97</v>
       </c>
       <c r="G33">
         <v>7588</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.97</v>
       </c>
       <c r="I33">
         <v>7373</v>
       </c>
       <c r="J33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.432500000000001</v>
       </c>
       <c r="K33">
         <v>7543</v>
       </c>
       <c r="L33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.857500000000002</v>
       </c>
       <c r="M33">
         <v>7298</v>
       </c>
       <c r="N33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.245000000000001</v>
       </c>
       <c r="O33">
         <v>7876</v>
       </c>
       <c r="P33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -10367,53 +10381,53 @@
         <v>65</v>
       </c>
       <c r="C34">
-        <f>HEX2DEC(B34)</f>
+        <f t="shared" ref="C34:C65" si="8">HEX2DEC(B34)</f>
         <v>7768</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.420000000000002</v>
       </c>
       <c r="E34">
         <v>7653</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.1325</v>
       </c>
       <c r="G34">
         <v>7653</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.1325</v>
       </c>
       <c r="I34">
         <v>7438</v>
       </c>
       <c r="J34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.594999999999999</v>
       </c>
       <c r="K34">
         <v>7616</v>
       </c>
       <c r="L34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.04</v>
       </c>
       <c r="M34">
         <v>7384</v>
       </c>
       <c r="N34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.46</v>
       </c>
       <c r="O34">
         <v>7958</v>
       </c>
       <c r="P34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19.895</v>
       </c>
     </row>
@@ -10425,53 +10439,53 @@
         <v>67</v>
       </c>
       <c r="C35">
-        <f>HEX2DEC(B35)</f>
+        <f t="shared" si="8"/>
         <v>7840</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.600000000000001</v>
       </c>
       <c r="E35">
         <v>7730</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.324999999999999</v>
       </c>
       <c r="G35">
         <v>7730</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.324999999999999</v>
       </c>
       <c r="I35">
         <v>7499</v>
       </c>
       <c r="J35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.747499999999999</v>
       </c>
       <c r="K35">
         <v>7687</v>
       </c>
       <c r="L35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.217500000000001</v>
       </c>
       <c r="M35">
         <v>7456</v>
       </c>
       <c r="N35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.64</v>
       </c>
       <c r="O35">
         <v>8032</v>
       </c>
       <c r="P35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20.079999999999998</v>
       </c>
     </row>
@@ -10483,53 +10497,53 @@
         <v>69</v>
       </c>
       <c r="C36">
-        <f>HEX2DEC(B36)</f>
+        <f t="shared" si="8"/>
         <v>7923</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.807500000000001</v>
       </c>
       <c r="E36">
         <v>7795</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.487500000000001</v>
       </c>
       <c r="G36">
         <v>7795</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.487500000000001</v>
       </c>
       <c r="I36">
         <v>7557</v>
       </c>
       <c r="J36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.892499999999998</v>
       </c>
       <c r="K36">
         <v>7775</v>
       </c>
       <c r="L36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.4375</v>
       </c>
       <c r="M36">
         <v>7519</v>
       </c>
       <c r="N36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.797499999999999</v>
       </c>
       <c r="O36">
         <v>8109</v>
       </c>
       <c r="P36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20.272500000000001</v>
       </c>
     </row>
@@ -10541,53 +10555,53 @@
         <v>71</v>
       </c>
       <c r="C37">
-        <f>HEX2DEC(B37)</f>
+        <f t="shared" si="8"/>
         <v>8000</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="E37">
         <v>7867</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.6675</v>
       </c>
       <c r="G37">
         <v>7867</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.6675</v>
       </c>
       <c r="I37">
         <v>7625</v>
       </c>
       <c r="J37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.0625</v>
       </c>
       <c r="K37">
         <v>7840</v>
       </c>
       <c r="L37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.600000000000001</v>
       </c>
       <c r="M37">
         <v>7585</v>
       </c>
       <c r="N37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.962499999999999</v>
       </c>
       <c r="O37">
         <v>8186</v>
       </c>
       <c r="P37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20.465</v>
       </c>
     </row>
@@ -10599,53 +10613,53 @@
         <v>73</v>
       </c>
       <c r="C38">
-        <f>HEX2DEC(B38)</f>
+        <f t="shared" si="8"/>
         <v>8070</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.175000000000001</v>
       </c>
       <c r="E38">
         <v>7940</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.850000000000001</v>
       </c>
       <c r="G38">
         <v>7940</v>
       </c>
       <c r="H38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.850000000000001</v>
       </c>
       <c r="I38">
         <v>7687</v>
       </c>
       <c r="J38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.217500000000001</v>
       </c>
       <c r="K38">
         <v>7905</v>
       </c>
       <c r="L38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.762499999999999</v>
       </c>
       <c r="M38">
         <v>7648</v>
       </c>
       <c r="N38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.12</v>
       </c>
       <c r="O38">
         <v>8264</v>
       </c>
       <c r="P38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20.66</v>
       </c>
     </row>
@@ -10657,53 +10671,53 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <f>HEX2DEC(B39)</f>
+        <f t="shared" si="8"/>
         <v>8145</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.362500000000001</v>
       </c>
       <c r="E39">
         <v>8014</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.035</v>
       </c>
       <c r="G39">
         <v>8014</v>
       </c>
       <c r="H39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.035</v>
       </c>
       <c r="I39">
         <v>7753</v>
       </c>
       <c r="J39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.3825</v>
       </c>
       <c r="K39">
         <v>7977</v>
       </c>
       <c r="L39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.942499999999999</v>
       </c>
       <c r="M39">
         <v>7720</v>
       </c>
       <c r="N39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.3</v>
       </c>
       <c r="O39">
         <v>8344</v>
       </c>
       <c r="P39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20.86</v>
       </c>
     </row>
@@ -10715,53 +10729,53 @@
         <v>77</v>
       </c>
       <c r="C40">
-        <f>HEX2DEC(B40)</f>
+        <f t="shared" si="8"/>
         <v>8199</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.497499999999999</v>
       </c>
       <c r="E40">
         <v>8082</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.204999999999998</v>
       </c>
       <c r="G40">
         <v>8082</v>
       </c>
       <c r="H40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.204999999999998</v>
       </c>
       <c r="I40">
         <v>7830</v>
       </c>
       <c r="J40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.574999999999999</v>
       </c>
       <c r="K40">
         <v>8048</v>
       </c>
       <c r="L40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.12</v>
       </c>
       <c r="M40">
         <v>7776</v>
       </c>
       <c r="N40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.440000000000001</v>
       </c>
       <c r="O40">
         <v>8405</v>
       </c>
       <c r="P40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.012499999999999</v>
       </c>
     </row>
@@ -10773,53 +10787,53 @@
         <v>79</v>
       </c>
       <c r="C41">
-        <f>HEX2DEC(B41)</f>
+        <f t="shared" si="8"/>
         <v>8276</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.69</v>
       </c>
       <c r="E41">
         <v>8159</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.397500000000001</v>
       </c>
       <c r="G41">
         <v>8159</v>
       </c>
       <c r="H41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.397500000000001</v>
       </c>
       <c r="I41">
         <v>7898</v>
       </c>
       <c r="J41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.745000000000001</v>
       </c>
       <c r="K41">
         <v>8117</v>
       </c>
       <c r="L41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.2925</v>
       </c>
       <c r="M41">
         <v>7848</v>
       </c>
       <c r="N41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.62</v>
       </c>
       <c r="O41">
         <v>8480</v>
       </c>
       <c r="P41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.2</v>
       </c>
     </row>
@@ -10831,53 +10845,53 @@
         <v>81</v>
       </c>
       <c r="C42">
-        <f>HEX2DEC(B42)</f>
+        <f t="shared" si="8"/>
         <v>8351</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.877500000000001</v>
       </c>
       <c r="E42">
         <v>8209</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.522500000000001</v>
       </c>
       <c r="G42">
         <v>8209</v>
       </c>
       <c r="H42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.522500000000001</v>
       </c>
       <c r="I42">
         <v>7968</v>
       </c>
       <c r="J42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.920000000000002</v>
       </c>
       <c r="K42">
         <v>8169</v>
       </c>
       <c r="L42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.422499999999999</v>
       </c>
       <c r="M42">
         <v>7916</v>
       </c>
       <c r="N42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.79</v>
       </c>
       <c r="O42">
         <v>8553</v>
       </c>
       <c r="P42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.3825</v>
       </c>
     </row>
@@ -10889,53 +10903,53 @@
         <v>83</v>
       </c>
       <c r="C43">
-        <f>HEX2DEC(B43)</f>
+        <f t="shared" si="8"/>
         <v>8420</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.05</v>
       </c>
       <c r="E43">
         <v>8285</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.712499999999999</v>
       </c>
       <c r="G43">
         <v>8285</v>
       </c>
       <c r="H43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.712499999999999</v>
       </c>
       <c r="I43">
         <v>8032</v>
       </c>
       <c r="J43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.079999999999998</v>
       </c>
       <c r="K43">
         <v>8241</v>
       </c>
       <c r="L43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.602499999999999</v>
       </c>
       <c r="M43">
         <v>7990</v>
       </c>
       <c r="N43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.975000000000001</v>
       </c>
       <c r="O43">
         <v>8631</v>
       </c>
       <c r="P43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.577500000000001</v>
       </c>
     </row>
@@ -10947,53 +10961,53 @@
         <v>85</v>
       </c>
       <c r="C44">
-        <f>HEX2DEC(B44)</f>
+        <f t="shared" si="8"/>
         <v>8499</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.247499999999999</v>
       </c>
       <c r="E44">
         <v>8343</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.857500000000002</v>
       </c>
       <c r="G44">
         <v>8343</v>
       </c>
       <c r="H44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.857500000000002</v>
       </c>
       <c r="I44">
         <v>8115</v>
       </c>
       <c r="J44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.287500000000001</v>
       </c>
       <c r="K44">
         <v>8301</v>
       </c>
       <c r="L44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.752500000000001</v>
       </c>
       <c r="M44">
         <v>8055</v>
       </c>
       <c r="N44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20.137499999999999</v>
       </c>
       <c r="O44">
         <v>8699</v>
       </c>
       <c r="P44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.747499999999999</v>
       </c>
     </row>
@@ -11005,53 +11019,53 @@
         <v>87</v>
       </c>
       <c r="C45">
-        <f>HEX2DEC(B45)</f>
+        <f t="shared" si="8"/>
         <v>8576</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.44</v>
       </c>
       <c r="E45">
         <v>8416</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.04</v>
       </c>
       <c r="G45">
         <v>8416</v>
       </c>
       <c r="H45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.04</v>
       </c>
       <c r="I45">
         <v>8183</v>
       </c>
       <c r="J45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.4575</v>
       </c>
       <c r="K45">
         <v>8371</v>
       </c>
       <c r="L45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.927499999999998</v>
       </c>
       <c r="M45">
         <v>8126</v>
       </c>
       <c r="N45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20.315000000000001</v>
       </c>
       <c r="O45">
         <v>8770</v>
       </c>
       <c r="P45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.925000000000001</v>
       </c>
     </row>
@@ -11063,53 +11077,53 @@
         <v>89</v>
       </c>
       <c r="C46">
-        <f>HEX2DEC(B46)</f>
+        <f t="shared" si="8"/>
         <v>8631</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.577500000000001</v>
       </c>
       <c r="E46">
         <v>8488</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.22</v>
       </c>
       <c r="G46">
         <v>8488</v>
       </c>
       <c r="H46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.22</v>
       </c>
       <c r="I46">
         <v>8239</v>
       </c>
       <c r="J46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.5975</v>
       </c>
       <c r="K46">
         <v>8452</v>
       </c>
       <c r="L46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.13</v>
       </c>
       <c r="M46">
         <v>8177</v>
       </c>
       <c r="N46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20.442499999999999</v>
       </c>
       <c r="O46">
         <v>8841</v>
       </c>
       <c r="P46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.102499999999999</v>
       </c>
     </row>
@@ -11121,53 +11135,53 @@
         <v>91</v>
       </c>
       <c r="C47">
-        <f>HEX2DEC(B47)</f>
+        <f t="shared" si="8"/>
         <v>8704</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.76</v>
       </c>
       <c r="E47">
         <v>8565</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.412500000000001</v>
       </c>
       <c r="G47">
         <v>8565</v>
       </c>
       <c r="H47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.412500000000001</v>
       </c>
       <c r="I47">
         <v>8305</v>
       </c>
       <c r="J47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.762499999999999</v>
       </c>
       <c r="K47">
         <v>8522</v>
       </c>
       <c r="L47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.305</v>
       </c>
       <c r="M47">
         <v>8254</v>
       </c>
       <c r="N47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20.635000000000002</v>
       </c>
       <c r="O47">
         <v>8924</v>
       </c>
       <c r="P47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.31</v>
       </c>
     </row>
@@ -11179,53 +11193,53 @@
         <v>93</v>
       </c>
       <c r="C48">
-        <f>HEX2DEC(B48)</f>
+        <f t="shared" si="8"/>
         <v>8779</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.947500000000002</v>
       </c>
       <c r="E48">
         <v>8638</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.594999999999999</v>
       </c>
       <c r="G48">
         <v>8638</v>
       </c>
       <c r="H48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.594999999999999</v>
       </c>
       <c r="I48">
         <v>8352</v>
       </c>
       <c r="J48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.88</v>
       </c>
       <c r="K48">
         <v>8598</v>
       </c>
       <c r="L48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.495000000000001</v>
       </c>
       <c r="M48">
         <v>8311</v>
       </c>
       <c r="N48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20.7775</v>
       </c>
       <c r="O48">
         <v>8982</v>
       </c>
       <c r="P48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.454999999999998</v>
       </c>
     </row>
@@ -11237,53 +11251,53 @@
         <v>95</v>
       </c>
       <c r="C49">
-        <f>HEX2DEC(B49)</f>
+        <f t="shared" si="8"/>
         <v>8855</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.137499999999999</v>
       </c>
       <c r="E49">
         <v>8710</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.774999999999999</v>
       </c>
       <c r="G49">
         <v>8710</v>
       </c>
       <c r="H49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.774999999999999</v>
       </c>
       <c r="I49">
         <v>8418</v>
       </c>
       <c r="J49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.045000000000002</v>
       </c>
       <c r="K49">
         <v>8670</v>
       </c>
       <c r="L49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.675000000000001</v>
       </c>
       <c r="M49">
         <v>8384</v>
       </c>
       <c r="N49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20.96</v>
       </c>
       <c r="O49">
         <v>9056</v>
       </c>
       <c r="P49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.64</v>
       </c>
     </row>
@@ -11295,53 +11309,53 @@
         <v>97</v>
       </c>
       <c r="C50">
-        <f>HEX2DEC(B50)</f>
+        <f t="shared" si="8"/>
         <v>8919</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.297499999999999</v>
       </c>
       <c r="E50">
         <v>8772</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.93</v>
       </c>
       <c r="G50">
         <v>8772</v>
       </c>
       <c r="H50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.93</v>
       </c>
       <c r="I50">
         <v>8494</v>
       </c>
       <c r="J50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.234999999999999</v>
       </c>
       <c r="K50">
         <v>8747</v>
       </c>
       <c r="L50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.8675</v>
       </c>
       <c r="M50">
         <v>8448</v>
       </c>
       <c r="N50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.12</v>
       </c>
       <c r="O50">
         <v>9127</v>
       </c>
       <c r="P50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.817499999999999</v>
       </c>
     </row>
@@ -11353,53 +11367,53 @@
         <v>99</v>
       </c>
       <c r="C51">
-        <f>HEX2DEC(B51)</f>
+        <f t="shared" si="8"/>
         <v>8993</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.482500000000002</v>
       </c>
       <c r="E51">
         <v>8848</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.12</v>
       </c>
       <c r="G51">
         <v>8848</v>
       </c>
       <c r="H51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.12</v>
       </c>
       <c r="I51">
         <v>8558</v>
       </c>
       <c r="J51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.395</v>
       </c>
       <c r="K51">
         <v>8819</v>
       </c>
       <c r="L51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.047499999999999</v>
       </c>
       <c r="M51">
         <v>8517</v>
       </c>
       <c r="N51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.2925</v>
       </c>
       <c r="O51">
         <v>9207</v>
       </c>
       <c r="P51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.017499999999998</v>
       </c>
     </row>
@@ -11411,53 +11425,53 @@
         <v>101</v>
       </c>
       <c r="C52">
-        <f>HEX2DEC(B52)</f>
+        <f t="shared" si="8"/>
         <v>9071</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.677499999999998</v>
       </c>
       <c r="E52">
         <v>8927</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.317499999999999</v>
       </c>
       <c r="G52">
         <v>8927</v>
       </c>
       <c r="H52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.317499999999999</v>
       </c>
       <c r="I52">
         <v>8632</v>
       </c>
       <c r="J52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.58</v>
       </c>
       <c r="K52">
         <v>8900</v>
       </c>
       <c r="L52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.25</v>
       </c>
       <c r="M52">
         <v>8585</v>
       </c>
       <c r="N52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.462499999999999</v>
       </c>
       <c r="O52">
         <v>9292</v>
       </c>
       <c r="P52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.23</v>
       </c>
     </row>
@@ -11469,53 +11483,53 @@
         <v>103</v>
       </c>
       <c r="C53">
-        <f>HEX2DEC(B53)</f>
+        <f t="shared" si="8"/>
         <v>9151</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.877500000000001</v>
       </c>
       <c r="E53">
         <v>8994</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.484999999999999</v>
       </c>
       <c r="G53">
         <v>8994</v>
       </c>
       <c r="H53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.484999999999999</v>
       </c>
       <c r="I53">
         <v>8698</v>
       </c>
       <c r="J53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.745000000000001</v>
       </c>
       <c r="K53">
         <v>8969</v>
       </c>
       <c r="L53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.422499999999999</v>
       </c>
       <c r="M53">
         <v>8663</v>
       </c>
       <c r="N53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.657499999999999</v>
       </c>
       <c r="O53">
         <v>9375</v>
       </c>
       <c r="P53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.4375</v>
       </c>
     </row>
@@ -11527,53 +11541,53 @@
         <v>105</v>
       </c>
       <c r="C54">
-        <f>HEX2DEC(B54)</f>
+        <f t="shared" si="8"/>
         <v>9221</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.052499999999998</v>
       </c>
       <c r="E54">
         <v>9056</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.64</v>
       </c>
       <c r="G54">
         <v>9056</v>
       </c>
       <c r="H54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.64</v>
       </c>
       <c r="I54">
         <v>8768</v>
       </c>
       <c r="J54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.92</v>
       </c>
       <c r="K54">
         <v>9032</v>
       </c>
       <c r="L54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.58</v>
       </c>
       <c r="M54">
         <v>8734</v>
       </c>
       <c r="N54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.835000000000001</v>
       </c>
       <c r="O54">
         <v>9440</v>
       </c>
       <c r="P54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.6</v>
       </c>
     </row>
@@ -11585,53 +11599,53 @@
         <v>107</v>
       </c>
       <c r="C55">
-        <f>HEX2DEC(B55)</f>
+        <f t="shared" si="8"/>
         <v>9299</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.247499999999999</v>
       </c>
       <c r="E55">
         <v>9136</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.84</v>
       </c>
       <c r="G55">
         <v>9136</v>
       </c>
       <c r="H55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.84</v>
       </c>
       <c r="I55">
         <v>8832</v>
       </c>
       <c r="J55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.08</v>
       </c>
       <c r="K55">
         <v>9105</v>
       </c>
       <c r="L55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.762499999999999</v>
       </c>
       <c r="M55">
         <v>8801</v>
       </c>
       <c r="N55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22.002500000000001</v>
       </c>
       <c r="O55">
         <v>9520</v>
       </c>
       <c r="P55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.8</v>
       </c>
     </row>
@@ -11643,53 +11657,53 @@
         <v>109</v>
       </c>
       <c r="C56">
-        <f>HEX2DEC(B56)</f>
+        <f t="shared" si="8"/>
         <v>9377</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.442499999999999</v>
       </c>
       <c r="E56">
         <v>9200</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="G56">
         <v>9200</v>
       </c>
       <c r="H56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="I56">
         <v>8889</v>
       </c>
       <c r="J56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.2225</v>
       </c>
       <c r="K56">
         <v>9182</v>
       </c>
       <c r="L56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.954999999999998</v>
       </c>
       <c r="M56">
         <v>8853</v>
       </c>
       <c r="N56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22.1325</v>
       </c>
       <c r="O56">
         <v>9600</v>
       </c>
       <c r="P56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
     </row>
@@ -11701,53 +11715,53 @@
         <v>111</v>
       </c>
       <c r="C57">
-        <f>HEX2DEC(B57)</f>
+        <f t="shared" si="8"/>
         <v>9458</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.645</v>
       </c>
       <c r="E57">
         <v>9277</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.192499999999999</v>
       </c>
       <c r="G57">
         <v>9277</v>
       </c>
       <c r="H57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.192499999999999</v>
       </c>
       <c r="I57">
         <v>8960</v>
       </c>
       <c r="J57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.4</v>
       </c>
       <c r="K57">
         <v>9248</v>
       </c>
       <c r="L57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.12</v>
       </c>
       <c r="M57">
         <v>8928</v>
       </c>
       <c r="N57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22.32</v>
       </c>
       <c r="O57">
         <v>9678</v>
       </c>
       <c r="P57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24.195</v>
       </c>
     </row>
@@ -11759,53 +11773,53 @@
         <v>113</v>
       </c>
       <c r="C58">
-        <f>HEX2DEC(B58)</f>
+        <f t="shared" si="8"/>
         <v>9529</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.822500000000002</v>
       </c>
       <c r="E58">
         <v>9344</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.36</v>
       </c>
       <c r="G58">
         <v>9344</v>
       </c>
       <c r="H58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.36</v>
       </c>
       <c r="I58">
         <v>9025</v>
       </c>
       <c r="J58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.5625</v>
       </c>
       <c r="K58">
         <v>9320</v>
       </c>
       <c r="L58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.3</v>
       </c>
       <c r="M58">
         <v>9002</v>
       </c>
       <c r="N58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22.504999999999999</v>
       </c>
       <c r="O58">
         <v>9760</v>
       </c>
       <c r="P58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24.4</v>
       </c>
     </row>
@@ -11817,53 +11831,53 @@
         <v>115</v>
       </c>
       <c r="C59">
-        <f>HEX2DEC(B59)</f>
+        <f t="shared" si="8"/>
         <v>9602</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.004999999999999</v>
       </c>
       <c r="E59">
         <v>9416</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.54</v>
       </c>
       <c r="G59">
         <v>9416</v>
       </c>
       <c r="H59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.54</v>
       </c>
       <c r="I59">
         <v>9095</v>
       </c>
       <c r="J59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.737500000000001</v>
       </c>
       <c r="K59">
         <v>9394</v>
       </c>
       <c r="L59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.484999999999999</v>
       </c>
       <c r="M59">
         <v>9076</v>
       </c>
       <c r="N59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22.69</v>
       </c>
       <c r="O59">
         <v>9837</v>
       </c>
       <c r="P59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24.592500000000001</v>
       </c>
     </row>
@@ -11875,53 +11889,53 @@
         <v>117</v>
       </c>
       <c r="C60">
-        <f>HEX2DEC(B60)</f>
+        <f t="shared" si="8"/>
         <v>9681</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.202500000000001</v>
       </c>
       <c r="E60">
         <v>9472</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.68</v>
       </c>
       <c r="G60">
         <v>9472</v>
       </c>
       <c r="H60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.68</v>
       </c>
       <c r="I60">
         <v>9176</v>
       </c>
       <c r="J60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.94</v>
       </c>
       <c r="K60">
         <v>9467</v>
       </c>
       <c r="L60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.6675</v>
       </c>
       <c r="M60">
         <v>9142</v>
       </c>
       <c r="N60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22.855</v>
       </c>
       <c r="O60">
         <v>9914</v>
       </c>
       <c r="P60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24.785</v>
       </c>
     </row>
@@ -11933,53 +11947,53 @@
         <v>119</v>
       </c>
       <c r="C61">
-        <f>HEX2DEC(B61)</f>
+        <f t="shared" si="8"/>
         <v>9759</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.397500000000001</v>
       </c>
       <c r="E61">
         <v>9551</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.877500000000001</v>
       </c>
       <c r="G61">
         <v>9551</v>
       </c>
       <c r="H61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.877500000000001</v>
       </c>
       <c r="I61">
         <v>9245</v>
       </c>
       <c r="J61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.112500000000001</v>
       </c>
       <c r="K61">
         <v>9536</v>
       </c>
       <c r="L61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.84</v>
       </c>
       <c r="M61">
         <v>9216</v>
       </c>
       <c r="N61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23.04</v>
       </c>
       <c r="O61">
         <v>9990</v>
       </c>
       <c r="P61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24.975000000000001</v>
       </c>
     </row>
@@ -11991,53 +12005,53 @@
         <v>121</v>
       </c>
       <c r="C62">
-        <f>HEX2DEC(B62)</f>
+        <f t="shared" si="8"/>
         <v>9824</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.56</v>
       </c>
       <c r="E62">
         <v>9635</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.087499999999999</v>
       </c>
       <c r="G62">
         <v>9635</v>
       </c>
       <c r="H62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.087499999999999</v>
       </c>
       <c r="I62">
         <v>9311</v>
       </c>
       <c r="J62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.2775</v>
       </c>
       <c r="K62">
         <v>9618</v>
       </c>
       <c r="L62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.045000000000002</v>
       </c>
       <c r="M62">
         <v>9280</v>
       </c>
       <c r="N62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23.2</v>
       </c>
       <c r="O62">
         <v>10059</v>
       </c>
       <c r="P62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.147500000000001</v>
       </c>
       <c r="Y62">
@@ -12077,60 +12091,60 @@
         <v>123</v>
       </c>
       <c r="C63">
-        <f>HEX2DEC(B63)</f>
+        <f t="shared" si="8"/>
         <v>9901</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.752500000000001</v>
       </c>
       <c r="E63">
         <v>9718</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.295000000000002</v>
       </c>
       <c r="G63">
         <v>9718</v>
       </c>
       <c r="H63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.295000000000002</v>
       </c>
       <c r="I63">
         <v>9377</v>
       </c>
       <c r="J63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.442499999999999</v>
       </c>
       <c r="K63">
         <v>9692</v>
       </c>
       <c r="L63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.23</v>
       </c>
       <c r="M63">
         <v>9358</v>
       </c>
       <c r="N63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23.395</v>
       </c>
       <c r="O63">
         <v>10143</v>
       </c>
       <c r="P63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.357500000000002</v>
       </c>
       <c r="Y63">
         <v>164</v>
       </c>
       <c r="Z63">
-        <f t="shared" ref="Z63:Z67" si="7">Y63/1000000</f>
+        <f t="shared" ref="Z63:Z67" si="9">Y63/1000000</f>
         <v>1.64E-4</v>
       </c>
       <c r="AA63">
@@ -12140,18 +12154,18 @@
         <v>13.605684999999999</v>
       </c>
       <c r="AD63">
-        <f t="shared" ref="AD63:AD67" si="8">Z63*127*127</f>
+        <f t="shared" ref="AD63:AD67" si="10">Z63*127*127</f>
         <v>2.6451560000000001</v>
       </c>
       <c r="AE63">
-        <f t="shared" ref="AE63:AE67" si="9">AA63*127</f>
+        <f t="shared" ref="AE63:AE67" si="11">AA63*127</f>
         <v>20.579079999999998</v>
       </c>
       <c r="AG63">
         <v>37</v>
       </c>
       <c r="AH63">
-        <f t="shared" ref="AH63:AH67" si="10">Z63*((AG63+1)^2)+AA63*(AG63+1)+AB63</f>
+        <f t="shared" ref="AH63:AH67" si="12">Z63*((AG63+1)^2)+AA63*(AG63+1)+AB63</f>
         <v>20.000021</v>
       </c>
     </row>
@@ -12163,60 +12177,60 @@
         <v>125</v>
       </c>
       <c r="C64">
-        <f>HEX2DEC(B64)</f>
+        <f t="shared" si="8"/>
         <v>9982</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.954999999999998</v>
       </c>
       <c r="E64">
         <v>9776</v>
       </c>
       <c r="F64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.44</v>
       </c>
       <c r="G64">
         <v>9776</v>
       </c>
       <c r="H64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.44</v>
       </c>
       <c r="I64">
         <v>9456</v>
       </c>
       <c r="J64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.64</v>
       </c>
       <c r="K64">
         <v>9775</v>
       </c>
       <c r="L64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.4375</v>
       </c>
       <c r="M64">
         <v>9419</v>
       </c>
       <c r="N64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23.547499999999999</v>
       </c>
       <c r="O64">
         <v>10188</v>
       </c>
       <c r="P64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.47</v>
       </c>
       <c r="Y64">
         <v>169</v>
       </c>
       <c r="Z64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.6899999999999999E-4</v>
       </c>
       <c r="AA64">
@@ -12226,18 +12240,18 @@
         <v>13.288095</v>
       </c>
       <c r="AD64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.7258010000000001</v>
       </c>
       <c r="AE64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19.533488999999999</v>
       </c>
       <c r="AG64">
         <v>41</v>
       </c>
       <c r="AH64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20.046105000000001</v>
       </c>
     </row>
@@ -12249,60 +12263,60 @@
         <v>127</v>
       </c>
       <c r="C65">
-        <f>HEX2DEC(B65)</f>
+        <f t="shared" si="8"/>
         <v>10055</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25.137499999999999</v>
       </c>
       <c r="E65">
         <v>9856</v>
       </c>
       <c r="F65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.64</v>
       </c>
       <c r="G65">
         <v>9856</v>
       </c>
       <c r="H65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.64</v>
       </c>
       <c r="I65">
         <v>9525</v>
       </c>
       <c r="J65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.8125</v>
       </c>
       <c r="K65">
         <v>9849</v>
       </c>
       <c r="L65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.622499999999999</v>
       </c>
       <c r="M65">
         <v>9495</v>
       </c>
       <c r="N65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23.737500000000001</v>
       </c>
       <c r="O65">
         <v>10272</v>
       </c>
       <c r="P65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.68</v>
       </c>
       <c r="Y65">
         <v>121</v>
       </c>
       <c r="Z65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.21E-4</v>
       </c>
       <c r="AA65">
@@ -12312,18 +12326,18 @@
         <v>13.419665999999999</v>
       </c>
       <c r="AD65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.9516090000000001</v>
       </c>
       <c r="AE65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>21.146134999999997</v>
       </c>
       <c r="AG65">
         <v>38</v>
       </c>
       <c r="AH65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20.097401999999999</v>
       </c>
     </row>
@@ -12335,60 +12349,60 @@
         <v>129</v>
       </c>
       <c r="C66">
-        <f>HEX2DEC(B66)</f>
+        <f t="shared" ref="C66:C97" si="13">HEX2DEC(B66)</f>
         <v>10128</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25.32</v>
       </c>
       <c r="E66">
         <v>9920</v>
       </c>
       <c r="F66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.8</v>
       </c>
       <c r="G66">
         <v>9920</v>
       </c>
       <c r="H66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.8</v>
       </c>
       <c r="I66">
         <v>9593</v>
       </c>
       <c r="J66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.982500000000002</v>
       </c>
       <c r="K66">
         <v>9921</v>
       </c>
       <c r="L66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.802499999999998</v>
       </c>
       <c r="M66">
         <v>9560</v>
       </c>
       <c r="N66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23.9</v>
       </c>
       <c r="O66">
         <v>10359</v>
       </c>
       <c r="P66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.897500000000001</v>
       </c>
       <c r="Y66">
         <v>137</v>
       </c>
       <c r="Z66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.37E-4</v>
       </c>
       <c r="AA66">
@@ -12398,18 +12412,18 @@
         <v>13.033747999999999</v>
       </c>
       <c r="AD66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.2096729999999996</v>
       </c>
       <c r="AE66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20.226020000000002</v>
       </c>
       <c r="AG66">
         <v>41</v>
       </c>
       <c r="AH66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>19.964335999999999</v>
       </c>
     </row>
@@ -12421,60 +12435,60 @@
         <v>131</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C118" si="11">HEX2DEC(B67)</f>
+        <f t="shared" ref="C67:C118" si="14">HEX2DEC(B67)</f>
         <v>10208</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D118" si="12">C67/400</f>
+        <f t="shared" ref="D67:D118" si="15">C67/400</f>
         <v>25.52</v>
       </c>
       <c r="E67">
         <v>9998</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F121" si="13">E67/400</f>
+        <f t="shared" ref="F67:F121" si="16">E67/400</f>
         <v>24.995000000000001</v>
       </c>
       <c r="G67">
         <v>9998</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H121" si="14">G67/400</f>
+        <f t="shared" ref="H67:H121" si="17">G67/400</f>
         <v>24.995000000000001</v>
       </c>
       <c r="I67">
         <v>9662</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J128" si="15">I67/400</f>
+        <f t="shared" ref="J67:J128" si="18">I67/400</f>
         <v>24.155000000000001</v>
       </c>
       <c r="K67">
         <v>9991</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L123" si="16">K67/400</f>
+        <f t="shared" ref="L67:L123" si="19">K67/400</f>
         <v>24.977499999999999</v>
       </c>
       <c r="M67">
         <v>9632</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N129" si="17">M67/400</f>
+        <f t="shared" ref="N67:N129" si="20">M67/400</f>
         <v>24.08</v>
       </c>
       <c r="O67">
         <v>10437</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P117" si="18">O67/400</f>
+        <f t="shared" ref="P67:P117" si="21">O67/400</f>
         <v>26.092500000000001</v>
       </c>
       <c r="Y67">
         <v>124</v>
       </c>
       <c r="Z67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2400000000000001E-4</v>
       </c>
       <c r="AA67">
@@ -12484,18 +12498,18 @@
         <v>14.048178999999999</v>
       </c>
       <c r="AD67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.9999960000000001</v>
       </c>
       <c r="AE67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22.107652000000002</v>
       </c>
       <c r="AG67">
         <v>32</v>
       </c>
       <c r="AH67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>19.927723</v>
       </c>
     </row>
@@ -12507,53 +12521,53 @@
         <v>133</v>
       </c>
       <c r="C68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10280</v>
       </c>
       <c r="D68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>25.7</v>
       </c>
       <c r="E68">
         <v>10060</v>
       </c>
       <c r="F68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>25.15</v>
       </c>
       <c r="G68">
         <v>10060</v>
       </c>
       <c r="H68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>25.15</v>
       </c>
       <c r="I68">
         <v>9730</v>
       </c>
       <c r="J68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>24.324999999999999</v>
       </c>
       <c r="K68">
         <v>10064</v>
       </c>
       <c r="L68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>25.16</v>
       </c>
       <c r="M68">
         <v>9703</v>
       </c>
       <c r="N68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>24.2575</v>
       </c>
       <c r="O68">
         <v>10509</v>
       </c>
       <c r="P68">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>26.272500000000001</v>
       </c>
     </row>
@@ -12565,53 +12579,53 @@
         <v>135</v>
       </c>
       <c r="C69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10356</v>
       </c>
       <c r="D69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>25.89</v>
       </c>
       <c r="E69">
         <v>10138</v>
       </c>
       <c r="F69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>25.344999999999999</v>
       </c>
       <c r="G69">
         <v>10138</v>
       </c>
       <c r="H69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>25.344999999999999</v>
       </c>
       <c r="I69">
         <v>9802</v>
       </c>
       <c r="J69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>24.504999999999999</v>
       </c>
       <c r="K69">
         <v>10138</v>
       </c>
       <c r="L69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>25.344999999999999</v>
       </c>
       <c r="M69">
         <v>9783</v>
       </c>
       <c r="N69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>24.4575</v>
       </c>
       <c r="O69">
         <v>10591</v>
       </c>
       <c r="P69">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>26.477499999999999</v>
       </c>
     </row>
@@ -12623,53 +12637,53 @@
         <v>137</v>
       </c>
       <c r="C70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10409</v>
       </c>
       <c r="D70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>26.022500000000001</v>
       </c>
       <c r="E70">
         <v>10208</v>
       </c>
       <c r="F70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>25.52</v>
       </c>
       <c r="G70">
         <v>10208</v>
       </c>
       <c r="H70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>25.52</v>
       </c>
       <c r="I70">
         <v>9868</v>
       </c>
       <c r="J70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>24.67</v>
       </c>
       <c r="K70">
         <v>10206</v>
       </c>
       <c r="L70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>25.515000000000001</v>
       </c>
       <c r="M70">
         <v>9856</v>
       </c>
       <c r="N70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>24.64</v>
       </c>
       <c r="O70">
         <v>10667</v>
       </c>
       <c r="P70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>26.6675</v>
       </c>
     </row>
@@ -12681,53 +12695,53 @@
         <v>139</v>
       </c>
       <c r="C71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10495</v>
       </c>
       <c r="D71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>26.237500000000001</v>
       </c>
       <c r="E71">
         <v>10279</v>
       </c>
       <c r="F71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>25.697500000000002</v>
       </c>
       <c r="G71">
         <v>10279</v>
       </c>
       <c r="H71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>25.697500000000002</v>
       </c>
       <c r="I71">
         <v>9939</v>
       </c>
       <c r="J71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>24.8475</v>
       </c>
       <c r="K71">
         <v>10272</v>
       </c>
       <c r="L71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>25.68</v>
       </c>
       <c r="M71">
         <v>9930</v>
       </c>
       <c r="N71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>24.824999999999999</v>
       </c>
       <c r="O71">
         <v>10750</v>
       </c>
       <c r="P71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>26.875</v>
       </c>
     </row>
@@ -12739,53 +12753,53 @@
         <v>141</v>
       </c>
       <c r="C72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10557</v>
       </c>
       <c r="D72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>26.392499999999998</v>
       </c>
       <c r="E72">
         <v>10368</v>
       </c>
       <c r="F72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>25.92</v>
       </c>
       <c r="G72">
         <v>10368</v>
       </c>
       <c r="H72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>25.92</v>
       </c>
       <c r="I72">
         <v>10009</v>
       </c>
       <c r="J72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>25.022500000000001</v>
       </c>
       <c r="K72">
         <v>10350</v>
       </c>
       <c r="L72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>25.875</v>
       </c>
       <c r="M72">
         <v>9992</v>
       </c>
       <c r="N72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>24.98</v>
       </c>
       <c r="O72">
         <v>10827</v>
       </c>
       <c r="P72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>27.067499999999999</v>
       </c>
     </row>
@@ -12797,53 +12811,53 @@
         <v>143</v>
       </c>
       <c r="C73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10629</v>
       </c>
       <c r="D73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>26.572500000000002</v>
       </c>
       <c r="E73">
         <v>10442</v>
       </c>
       <c r="F73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>26.105</v>
       </c>
       <c r="G73">
         <v>10442</v>
       </c>
       <c r="H73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>26.105</v>
       </c>
       <c r="I73">
         <v>10079</v>
       </c>
       <c r="J73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>25.197500000000002</v>
       </c>
       <c r="K73">
         <v>10424</v>
       </c>
       <c r="L73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>26.06</v>
       </c>
       <c r="M73">
         <v>10066</v>
       </c>
       <c r="N73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>25.164999999999999</v>
       </c>
       <c r="O73">
         <v>10912</v>
       </c>
       <c r="P73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>27.28</v>
       </c>
     </row>
@@ -12855,53 +12869,53 @@
         <v>145</v>
       </c>
       <c r="C74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10716</v>
       </c>
       <c r="D74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>26.79</v>
       </c>
       <c r="E74">
         <v>10525</v>
       </c>
       <c r="F74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>26.3125</v>
       </c>
       <c r="G74">
         <v>10525</v>
       </c>
       <c r="H74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>26.3125</v>
       </c>
       <c r="I74">
         <v>10144</v>
       </c>
       <c r="J74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>25.36</v>
       </c>
       <c r="K74">
         <v>10496</v>
       </c>
       <c r="L74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>26.24</v>
       </c>
       <c r="M74">
         <v>10131</v>
       </c>
       <c r="N74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>25.327500000000001</v>
       </c>
       <c r="O74">
         <v>10977</v>
       </c>
       <c r="P74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>27.442499999999999</v>
       </c>
     </row>
@@ -12913,53 +12927,53 @@
         <v>147</v>
       </c>
       <c r="C75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10791</v>
       </c>
       <c r="D75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>26.977499999999999</v>
       </c>
       <c r="E75">
         <v>10597</v>
       </c>
       <c r="F75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>26.4925</v>
       </c>
       <c r="G75">
         <v>10597</v>
       </c>
       <c r="H75">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>26.4925</v>
       </c>
       <c r="I75">
         <v>10209</v>
       </c>
       <c r="J75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>25.522500000000001</v>
       </c>
       <c r="K75">
         <v>10569</v>
       </c>
       <c r="L75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>26.422499999999999</v>
       </c>
       <c r="M75">
         <v>10206</v>
       </c>
       <c r="N75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>25.515000000000001</v>
       </c>
       <c r="O75">
         <v>11058</v>
       </c>
       <c r="P75">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>27.645</v>
       </c>
     </row>
@@ -12971,53 +12985,53 @@
         <v>149</v>
       </c>
       <c r="C76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10866</v>
       </c>
       <c r="D76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>27.164999999999999</v>
       </c>
       <c r="E76">
         <v>10680</v>
       </c>
       <c r="F76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>26.7</v>
       </c>
       <c r="G76">
         <v>10680</v>
       </c>
       <c r="H76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>26.7</v>
       </c>
       <c r="I76">
         <v>10286</v>
       </c>
       <c r="J76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>25.715</v>
       </c>
       <c r="K76">
         <v>10624</v>
       </c>
       <c r="L76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>26.56</v>
       </c>
       <c r="M76">
         <v>10295</v>
       </c>
       <c r="N76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>25.737500000000001</v>
       </c>
       <c r="O76">
         <v>11136</v>
       </c>
       <c r="P76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>27.84</v>
       </c>
     </row>
@@ -13029,53 +13043,53 @@
         <v>151</v>
       </c>
       <c r="C77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10943</v>
       </c>
       <c r="D77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>27.357500000000002</v>
       </c>
       <c r="E77">
         <v>10753</v>
       </c>
       <c r="F77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>26.8825</v>
       </c>
       <c r="G77">
         <v>10753</v>
       </c>
       <c r="H77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>26.8825</v>
       </c>
       <c r="I77">
         <v>10356</v>
       </c>
       <c r="J77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>25.89</v>
       </c>
       <c r="K77">
         <v>10697</v>
       </c>
       <c r="L77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>26.7425</v>
       </c>
       <c r="M77">
         <v>10368</v>
       </c>
       <c r="N77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>25.92</v>
       </c>
       <c r="O77">
         <v>11212</v>
       </c>
       <c r="P77">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>28.03</v>
       </c>
     </row>
@@ -13087,53 +13101,53 @@
         <v>153</v>
       </c>
       <c r="C78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>11011</v>
       </c>
       <c r="D78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>27.5275</v>
       </c>
       <c r="E78">
         <v>10831</v>
       </c>
       <c r="F78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>27.077500000000001</v>
       </c>
       <c r="G78">
         <v>10831</v>
       </c>
       <c r="H78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>27.077500000000001</v>
       </c>
       <c r="I78">
         <v>10438</v>
       </c>
       <c r="J78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>26.094999999999999</v>
       </c>
       <c r="K78">
         <v>10776</v>
       </c>
       <c r="L78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>26.94</v>
       </c>
       <c r="M78">
         <v>10449</v>
       </c>
       <c r="N78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>26.122499999999999</v>
       </c>
       <c r="O78">
         <v>11293</v>
       </c>
       <c r="P78">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>28.232500000000002</v>
       </c>
     </row>
@@ -13145,53 +13159,53 @@
         <v>155</v>
       </c>
       <c r="C79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>11093</v>
       </c>
       <c r="D79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>27.732500000000002</v>
       </c>
       <c r="E79">
         <v>10911</v>
       </c>
       <c r="F79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>27.2775</v>
       </c>
       <c r="G79">
         <v>10911</v>
       </c>
       <c r="H79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>27.2775</v>
       </c>
       <c r="I79">
         <v>10514</v>
       </c>
       <c r="J79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>26.285</v>
       </c>
       <c r="K79">
         <v>10848</v>
       </c>
       <c r="L79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>27.12</v>
       </c>
       <c r="M79">
         <v>10525</v>
       </c>
       <c r="N79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>26.3125</v>
       </c>
       <c r="O79">
         <v>11374</v>
       </c>
       <c r="P79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>28.434999999999999</v>
       </c>
     </row>
@@ -13203,53 +13217,53 @@
         <v>157</v>
       </c>
       <c r="C80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>11170</v>
       </c>
       <c r="D80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>27.925000000000001</v>
       </c>
       <c r="E80">
         <v>10980</v>
       </c>
       <c r="F80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>27.45</v>
       </c>
       <c r="G80">
         <v>10980</v>
       </c>
       <c r="H80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>27.45</v>
       </c>
       <c r="I80">
         <v>10588</v>
       </c>
       <c r="J80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>26.47</v>
       </c>
       <c r="K80">
         <v>10933</v>
       </c>
       <c r="L80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>27.3325</v>
       </c>
       <c r="M80">
         <v>10591</v>
       </c>
       <c r="N80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>26.477499999999999</v>
       </c>
       <c r="O80">
         <v>11442</v>
       </c>
       <c r="P80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>28.605</v>
       </c>
     </row>
@@ -13261,53 +13275,53 @@
         <v>159</v>
       </c>
       <c r="C81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>11252</v>
       </c>
       <c r="D81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>28.13</v>
       </c>
       <c r="E81">
         <v>11064</v>
       </c>
       <c r="F81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>27.66</v>
       </c>
       <c r="G81">
         <v>11064</v>
       </c>
       <c r="H81">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>27.66</v>
       </c>
       <c r="I81">
         <v>10656</v>
       </c>
       <c r="J81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>26.64</v>
       </c>
       <c r="K81">
         <v>11008</v>
       </c>
       <c r="L81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>27.52</v>
       </c>
       <c r="M81">
         <v>10665</v>
       </c>
       <c r="N81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>26.662500000000001</v>
       </c>
       <c r="O81">
         <v>11521</v>
       </c>
       <c r="P81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>28.802499999999998</v>
       </c>
     </row>
@@ -13319,53 +13333,53 @@
         <v>161</v>
       </c>
       <c r="C82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>11336</v>
       </c>
       <c r="D82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>28.34</v>
       </c>
       <c r="E82">
         <v>11136</v>
       </c>
       <c r="F82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>27.84</v>
       </c>
       <c r="G82">
         <v>11136</v>
       </c>
       <c r="H82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>27.84</v>
       </c>
       <c r="I82">
         <v>10734</v>
       </c>
       <c r="J82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>26.835000000000001</v>
       </c>
       <c r="K82">
         <v>11079</v>
       </c>
       <c r="L82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>27.697500000000002</v>
       </c>
       <c r="M82">
         <v>10745</v>
       </c>
       <c r="N82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>26.862500000000001</v>
       </c>
       <c r="O82">
         <v>11599</v>
       </c>
       <c r="P82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>28.997499999999999</v>
       </c>
     </row>
@@ -13377,53 +13391,53 @@
         <v>163</v>
       </c>
       <c r="C83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>11418</v>
       </c>
       <c r="D83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>28.545000000000002</v>
       </c>
       <c r="E83">
         <v>11210</v>
       </c>
       <c r="F83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>28.024999999999999</v>
       </c>
       <c r="G83">
         <v>11210</v>
       </c>
       <c r="H83">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>28.024999999999999</v>
       </c>
       <c r="I83">
         <v>10807</v>
       </c>
       <c r="J83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>27.017499999999998</v>
       </c>
       <c r="K83">
         <v>11154</v>
       </c>
       <c r="L83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>27.885000000000002</v>
       </c>
       <c r="M83">
         <v>10817</v>
       </c>
       <c r="N83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.0425</v>
       </c>
       <c r="O83">
         <v>11680</v>
       </c>
       <c r="P83">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>29.2</v>
       </c>
     </row>
@@ -13435,53 +13449,53 @@
         <v>165</v>
       </c>
       <c r="C84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>11488</v>
       </c>
       <c r="D84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>28.72</v>
       </c>
       <c r="E84">
         <v>11274</v>
       </c>
       <c r="F84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>28.184999999999999</v>
       </c>
       <c r="G84">
         <v>11274</v>
       </c>
       <c r="H84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>28.184999999999999</v>
       </c>
       <c r="I84">
         <v>10880</v>
       </c>
       <c r="J84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>27.2</v>
       </c>
       <c r="K84">
         <v>11227</v>
       </c>
       <c r="L84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>28.067499999999999</v>
       </c>
       <c r="M84">
         <v>10893</v>
       </c>
       <c r="N84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.232500000000002</v>
       </c>
       <c r="O84">
         <v>11747</v>
       </c>
       <c r="P84">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>29.3675</v>
       </c>
     </row>
@@ -13493,53 +13507,53 @@
         <v>167</v>
       </c>
       <c r="C85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>11566</v>
       </c>
       <c r="D85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>28.914999999999999</v>
       </c>
       <c r="E85">
         <v>11357</v>
       </c>
       <c r="F85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>28.392499999999998</v>
       </c>
       <c r="G85">
         <v>11357</v>
       </c>
       <c r="H85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>28.392499999999998</v>
       </c>
       <c r="I85">
         <v>10946</v>
       </c>
       <c r="J85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>27.364999999999998</v>
       </c>
       <c r="K85">
         <v>11297</v>
       </c>
       <c r="L85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>28.2425</v>
       </c>
       <c r="M85">
         <v>10974</v>
       </c>
       <c r="N85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.434999999999999</v>
       </c>
       <c r="O85">
         <v>11834</v>
       </c>
       <c r="P85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>29.585000000000001</v>
       </c>
     </row>
@@ -13551,53 +13565,53 @@
         <v>169</v>
       </c>
       <c r="C86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>11645</v>
       </c>
       <c r="D86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>29.112500000000001</v>
       </c>
       <c r="E86">
         <v>11434</v>
       </c>
       <c r="F86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>28.585000000000001</v>
       </c>
       <c r="G86">
         <v>11434</v>
       </c>
       <c r="H86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>28.585000000000001</v>
       </c>
       <c r="I86">
         <v>11026</v>
       </c>
       <c r="J86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>27.565000000000001</v>
       </c>
       <c r="K86">
         <v>11369</v>
       </c>
       <c r="L86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>28.422499999999999</v>
       </c>
       <c r="M86">
         <v>11040</v>
       </c>
       <c r="N86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.6</v>
       </c>
       <c r="O86">
         <v>11904</v>
       </c>
       <c r="P86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>29.76</v>
       </c>
     </row>
@@ -13609,53 +13623,53 @@
         <v>171</v>
       </c>
       <c r="C87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>11724</v>
       </c>
       <c r="D87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>29.31</v>
       </c>
       <c r="E87">
         <v>11517</v>
       </c>
       <c r="F87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>28.7925</v>
       </c>
       <c r="G87">
         <v>11517</v>
       </c>
       <c r="H87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>28.7925</v>
       </c>
       <c r="I87">
         <v>11096</v>
       </c>
       <c r="J87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>27.74</v>
       </c>
       <c r="K87">
         <v>11449</v>
       </c>
       <c r="L87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>28.622499999999999</v>
       </c>
       <c r="M87">
         <v>11118</v>
       </c>
       <c r="N87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.795000000000002</v>
       </c>
       <c r="O87">
         <v>11987</v>
       </c>
       <c r="P87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>29.967500000000001</v>
       </c>
     </row>
@@ -13667,53 +13681,53 @@
         <v>173</v>
       </c>
       <c r="C88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>11825</v>
       </c>
       <c r="D88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>29.5625</v>
       </c>
       <c r="E88">
         <v>11574</v>
       </c>
       <c r="F88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>28.934999999999999</v>
       </c>
       <c r="G88">
         <v>11574</v>
       </c>
       <c r="H88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>28.934999999999999</v>
       </c>
       <c r="I88">
         <v>11179</v>
       </c>
       <c r="J88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>27.947500000000002</v>
       </c>
       <c r="K88">
         <v>11529</v>
       </c>
       <c r="L88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>28.822500000000002</v>
       </c>
       <c r="M88">
         <v>11165</v>
       </c>
       <c r="N88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.912500000000001</v>
       </c>
       <c r="O88">
         <v>12067</v>
       </c>
       <c r="P88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>30.1675</v>
       </c>
     </row>
@@ -13725,53 +13739,53 @@
         <v>175</v>
       </c>
       <c r="C89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>11904</v>
       </c>
       <c r="D89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>29.76</v>
       </c>
       <c r="E89">
         <v>11651</v>
       </c>
       <c r="F89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>29.127500000000001</v>
       </c>
       <c r="G89">
         <v>11651</v>
       </c>
       <c r="H89">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>29.127500000000001</v>
       </c>
       <c r="I89">
         <v>11250</v>
       </c>
       <c r="J89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>28.125</v>
       </c>
       <c r="K89">
         <v>11605</v>
       </c>
       <c r="L89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>29.012499999999999</v>
       </c>
       <c r="M89">
         <v>11237</v>
       </c>
       <c r="N89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>28.092500000000001</v>
       </c>
       <c r="O89">
         <v>12154</v>
       </c>
       <c r="P89">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>30.385000000000002</v>
       </c>
     </row>
@@ -13783,53 +13797,53 @@
         <v>177</v>
       </c>
       <c r="C90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>11976</v>
       </c>
       <c r="D90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>29.94</v>
       </c>
       <c r="E90">
         <v>11725</v>
       </c>
       <c r="F90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>29.3125</v>
       </c>
       <c r="G90">
         <v>11725</v>
       </c>
       <c r="H90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>29.3125</v>
       </c>
       <c r="I90">
         <v>11328</v>
       </c>
       <c r="J90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>28.32</v>
       </c>
       <c r="K90">
         <v>11680</v>
       </c>
       <c r="L90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>29.2</v>
       </c>
       <c r="M90">
         <v>11317</v>
       </c>
       <c r="N90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>28.2925</v>
       </c>
       <c r="O90">
         <v>12224</v>
       </c>
       <c r="P90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>30.56</v>
       </c>
     </row>
@@ -13841,53 +13855,53 @@
         <v>179</v>
       </c>
       <c r="C91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>12060</v>
       </c>
       <c r="D91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>30.15</v>
       </c>
       <c r="E91">
         <v>11808</v>
       </c>
       <c r="F91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>29.52</v>
       </c>
       <c r="G91">
         <v>11808</v>
       </c>
       <c r="H91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>29.52</v>
       </c>
       <c r="I91">
         <v>11396</v>
       </c>
       <c r="J91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>28.49</v>
       </c>
       <c r="K91">
         <v>11749</v>
       </c>
       <c r="L91">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>29.372499999999999</v>
       </c>
       <c r="M91">
         <v>11392</v>
       </c>
       <c r="N91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>28.48</v>
       </c>
       <c r="O91">
         <v>12304</v>
       </c>
       <c r="P91">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>30.76</v>
       </c>
     </row>
@@ -13899,53 +13913,53 @@
         <v>181</v>
       </c>
       <c r="C92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>12135</v>
       </c>
       <c r="D92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>30.337499999999999</v>
       </c>
       <c r="E92">
         <v>11873</v>
       </c>
       <c r="F92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>29.682500000000001</v>
       </c>
       <c r="G92">
         <v>11873</v>
       </c>
       <c r="H92">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>29.682500000000001</v>
       </c>
       <c r="I92">
         <v>11473</v>
       </c>
       <c r="J92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>28.682500000000001</v>
       </c>
       <c r="K92">
         <v>11808</v>
       </c>
       <c r="L92">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>29.52</v>
       </c>
       <c r="M92">
         <v>11456</v>
       </c>
       <c r="N92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>28.64</v>
       </c>
       <c r="O92">
         <v>12374</v>
       </c>
       <c r="P92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>30.934999999999999</v>
       </c>
     </row>
@@ -13957,53 +13971,53 @@
         <v>183</v>
       </c>
       <c r="C93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>12217</v>
       </c>
       <c r="D93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>30.5425</v>
       </c>
       <c r="E93">
         <v>11958</v>
       </c>
       <c r="F93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>29.895</v>
       </c>
       <c r="G93">
         <v>11958</v>
       </c>
       <c r="H93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>29.895</v>
       </c>
       <c r="I93">
         <v>11545</v>
       </c>
       <c r="J93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>28.862500000000001</v>
       </c>
       <c r="K93">
         <v>11884</v>
       </c>
       <c r="L93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>29.71</v>
       </c>
       <c r="M93">
         <v>11528</v>
       </c>
       <c r="N93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>28.82</v>
       </c>
       <c r="O93">
         <v>12455</v>
       </c>
       <c r="P93">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>31.137499999999999</v>
       </c>
     </row>
@@ -14015,53 +14029,53 @@
         <v>185</v>
       </c>
       <c r="C94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>12288</v>
       </c>
       <c r="D94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>30.72</v>
       </c>
       <c r="E94">
         <v>12027</v>
       </c>
       <c r="F94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>30.067499999999999</v>
       </c>
       <c r="G94">
         <v>12027</v>
       </c>
       <c r="H94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>30.067499999999999</v>
       </c>
       <c r="I94">
         <v>11615</v>
       </c>
       <c r="J94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>29.037500000000001</v>
       </c>
       <c r="K94">
         <v>11963</v>
       </c>
       <c r="L94">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>29.907499999999999</v>
       </c>
       <c r="M94">
         <v>11594</v>
       </c>
       <c r="N94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>28.984999999999999</v>
       </c>
       <c r="O94">
         <v>12528</v>
       </c>
       <c r="P94">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>31.32</v>
       </c>
     </row>
@@ -14073,53 +14087,53 @@
         <v>187</v>
       </c>
       <c r="C95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>12379</v>
       </c>
       <c r="D95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>30.947500000000002</v>
       </c>
       <c r="E95">
         <v>12102</v>
       </c>
       <c r="F95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>30.254999999999999</v>
       </c>
       <c r="G95">
         <v>12102</v>
       </c>
       <c r="H95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>30.254999999999999</v>
       </c>
       <c r="I95">
         <v>11681</v>
       </c>
       <c r="J95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>29.202500000000001</v>
       </c>
       <c r="K95">
         <v>12032</v>
       </c>
       <c r="L95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>30.08</v>
       </c>
       <c r="M95">
         <v>11673</v>
       </c>
       <c r="N95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>29.182500000000001</v>
       </c>
       <c r="O95">
         <v>12609</v>
       </c>
       <c r="P95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>31.522500000000001</v>
       </c>
     </row>
@@ -14131,53 +14145,53 @@
         <v>189</v>
       </c>
       <c r="C96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>12447</v>
       </c>
       <c r="D96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>31.1175</v>
       </c>
       <c r="E96">
         <v>12181</v>
       </c>
       <c r="F96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>30.452500000000001</v>
       </c>
       <c r="G96">
         <v>12181</v>
       </c>
       <c r="H96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>30.452500000000001</v>
       </c>
       <c r="I96">
         <v>11763</v>
       </c>
       <c r="J96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>29.407499999999999</v>
       </c>
       <c r="K96">
         <v>12121</v>
       </c>
       <c r="L96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>30.302499999999998</v>
       </c>
       <c r="M96">
         <v>11738</v>
       </c>
       <c r="N96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>29.344999999999999</v>
       </c>
       <c r="O96">
         <v>12677</v>
       </c>
       <c r="P96">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>31.692499999999999</v>
       </c>
     </row>
@@ -14189,53 +14203,53 @@
         <v>191</v>
       </c>
       <c r="C97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>12525</v>
       </c>
       <c r="D97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>31.3125</v>
       </c>
       <c r="E97">
         <v>12262</v>
       </c>
       <c r="F97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>30.655000000000001</v>
       </c>
       <c r="G97">
         <v>12262</v>
       </c>
       <c r="H97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>30.655000000000001</v>
       </c>
       <c r="I97">
         <v>11837</v>
       </c>
       <c r="J97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>29.592500000000001</v>
       </c>
       <c r="K97">
         <v>12192</v>
       </c>
       <c r="L97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>30.48</v>
       </c>
       <c r="M97">
         <v>11813</v>
       </c>
       <c r="N97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>29.532499999999999</v>
       </c>
       <c r="O97">
         <v>12768</v>
       </c>
       <c r="P97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>31.92</v>
       </c>
     </row>
@@ -14247,53 +14261,53 @@
         <v>193</v>
       </c>
       <c r="C98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>12627</v>
       </c>
       <c r="D98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>31.567499999999999</v>
       </c>
       <c r="E98">
         <v>12341</v>
       </c>
       <c r="F98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>30.852499999999999</v>
       </c>
       <c r="G98">
         <v>12341</v>
       </c>
       <c r="H98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>30.852499999999999</v>
       </c>
       <c r="I98">
         <v>11928</v>
       </c>
       <c r="J98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>29.82</v>
       </c>
       <c r="K98">
         <v>12271</v>
       </c>
       <c r="L98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>30.677499999999998</v>
       </c>
       <c r="M98">
         <v>11888</v>
       </c>
       <c r="N98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>29.72</v>
       </c>
       <c r="O98">
         <v>12832</v>
       </c>
       <c r="P98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>32.08</v>
       </c>
     </row>
@@ -14305,53 +14319,53 @@
         <v>195</v>
       </c>
       <c r="C99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>12705</v>
       </c>
       <c r="D99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>31.762499999999999</v>
       </c>
       <c r="E99">
         <v>12416</v>
       </c>
       <c r="F99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>31.04</v>
       </c>
       <c r="G99">
         <v>12416</v>
       </c>
       <c r="H99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>31.04</v>
       </c>
       <c r="I99">
         <v>12000</v>
       </c>
       <c r="J99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="K99">
         <v>12349</v>
       </c>
       <c r="L99">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>30.872499999999999</v>
       </c>
       <c r="M99">
         <v>11966</v>
       </c>
       <c r="N99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>29.914999999999999</v>
       </c>
       <c r="O99">
         <v>12914</v>
       </c>
       <c r="P99">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>32.284999999999997</v>
       </c>
     </row>
@@ -14363,53 +14377,53 @@
         <v>197</v>
       </c>
       <c r="C100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>12792</v>
       </c>
       <c r="D100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>31.98</v>
       </c>
       <c r="E100">
         <v>12510</v>
       </c>
       <c r="F100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>31.274999999999999</v>
       </c>
       <c r="G100">
         <v>12510</v>
       </c>
       <c r="H100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>31.274999999999999</v>
       </c>
       <c r="I100">
         <v>12080</v>
       </c>
       <c r="J100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>30.2</v>
       </c>
       <c r="K100">
         <v>12443</v>
       </c>
       <c r="L100">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>31.107500000000002</v>
       </c>
       <c r="M100">
         <v>12030</v>
       </c>
       <c r="N100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>30.074999999999999</v>
       </c>
       <c r="O100">
         <v>12996</v>
       </c>
       <c r="P100">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>32.49</v>
       </c>
     </row>
@@ -14421,53 +14435,53 @@
         <v>199</v>
       </c>
       <c r="C101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>12868</v>
       </c>
       <c r="D101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>32.17</v>
       </c>
       <c r="E101">
         <v>12584</v>
       </c>
       <c r="F101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>31.46</v>
       </c>
       <c r="G101">
         <v>12584</v>
       </c>
       <c r="H101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>31.46</v>
       </c>
       <c r="I101">
         <v>12152</v>
       </c>
       <c r="J101">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>30.38</v>
       </c>
       <c r="K101">
         <v>12514</v>
       </c>
       <c r="L101">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>31.285</v>
       </c>
       <c r="M101">
         <v>12102</v>
       </c>
       <c r="N101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>30.254999999999999</v>
       </c>
       <c r="O101">
         <v>13086</v>
       </c>
       <c r="P101">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>32.715000000000003</v>
       </c>
     </row>
@@ -14479,53 +14493,53 @@
         <v>201</v>
       </c>
       <c r="C102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>12950</v>
       </c>
       <c r="D102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>32.375</v>
       </c>
       <c r="E102">
         <v>12660</v>
       </c>
       <c r="F102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>31.65</v>
       </c>
       <c r="G102">
         <v>12660</v>
       </c>
       <c r="H102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>31.65</v>
       </c>
       <c r="I102">
         <v>12244</v>
       </c>
       <c r="J102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>30.61</v>
       </c>
       <c r="K102">
         <v>12581</v>
       </c>
       <c r="L102">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>31.452500000000001</v>
       </c>
       <c r="M102">
         <v>12192</v>
       </c>
       <c r="N102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>30.48</v>
       </c>
       <c r="O102">
         <v>13152</v>
       </c>
       <c r="P102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>32.880000000000003</v>
       </c>
     </row>
@@ -14537,53 +14551,53 @@
         <v>203</v>
       </c>
       <c r="C103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>13029</v>
       </c>
       <c r="D103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>32.572499999999998</v>
       </c>
       <c r="E103">
         <v>12736</v>
       </c>
       <c r="F103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>31.84</v>
       </c>
       <c r="G103">
         <v>12736</v>
       </c>
       <c r="H103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>31.84</v>
       </c>
       <c r="I103">
         <v>12315</v>
       </c>
       <c r="J103">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>30.787500000000001</v>
       </c>
       <c r="K103">
         <v>12663</v>
       </c>
       <c r="L103">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>31.657499999999999</v>
       </c>
       <c r="M103">
         <v>12264</v>
       </c>
       <c r="N103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>30.66</v>
       </c>
       <c r="O103">
         <v>13236</v>
       </c>
       <c r="P103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>33.090000000000003</v>
       </c>
     </row>
@@ -14595,53 +14609,53 @@
         <v>205</v>
       </c>
       <c r="C104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>13112</v>
       </c>
       <c r="D104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>32.78</v>
       </c>
       <c r="E104">
         <v>12805</v>
       </c>
       <c r="F104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>32.012500000000003</v>
       </c>
       <c r="G104">
         <v>12805</v>
       </c>
       <c r="H104">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>32.012500000000003</v>
       </c>
       <c r="I104">
         <v>12393</v>
       </c>
       <c r="J104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>30.982500000000002</v>
       </c>
       <c r="K104">
         <v>12740</v>
       </c>
       <c r="L104">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>31.85</v>
       </c>
       <c r="M104">
         <v>12320</v>
       </c>
       <c r="N104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>30.8</v>
       </c>
       <c r="O104">
         <v>13302</v>
       </c>
       <c r="P104">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>33.255000000000003</v>
       </c>
     </row>
@@ -14653,53 +14667,53 @@
         <v>207</v>
       </c>
       <c r="C105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>13190</v>
       </c>
       <c r="D105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>32.975000000000001</v>
       </c>
       <c r="E105">
         <v>12891</v>
       </c>
       <c r="F105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>32.227499999999999</v>
       </c>
       <c r="G105">
         <v>12891</v>
       </c>
       <c r="H105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>32.227499999999999</v>
       </c>
       <c r="I105">
         <v>12466</v>
       </c>
       <c r="J105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>31.164999999999999</v>
       </c>
       <c r="K105">
         <v>12815</v>
       </c>
       <c r="L105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>32.037500000000001</v>
       </c>
       <c r="M105">
         <v>12396</v>
       </c>
       <c r="N105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>30.99</v>
       </c>
       <c r="O105">
         <v>13384</v>
       </c>
       <c r="P105">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>33.46</v>
       </c>
     </row>
@@ -14711,53 +14725,53 @@
         <v>209</v>
       </c>
       <c r="C106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>13274</v>
       </c>
       <c r="D106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>33.185000000000002</v>
       </c>
       <c r="E106">
         <v>12974</v>
       </c>
       <c r="F106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>32.435000000000002</v>
       </c>
       <c r="G106">
         <v>12974</v>
       </c>
       <c r="H106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>32.435000000000002</v>
       </c>
       <c r="I106">
         <v>12544</v>
       </c>
       <c r="J106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>31.36</v>
       </c>
       <c r="K106">
         <v>12899</v>
       </c>
       <c r="L106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>32.247500000000002</v>
       </c>
       <c r="M106">
         <v>12478</v>
       </c>
       <c r="N106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>31.195</v>
       </c>
       <c r="O106">
         <v>13450</v>
       </c>
       <c r="P106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>33.625</v>
       </c>
     </row>
@@ -14769,53 +14783,53 @@
         <v>211</v>
       </c>
       <c r="C107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>13358</v>
       </c>
       <c r="D107">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>33.395000000000003</v>
       </c>
       <c r="E107">
         <v>13056</v>
       </c>
       <c r="F107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>32.64</v>
       </c>
       <c r="G107">
         <v>13056</v>
       </c>
       <c r="H107">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>32.64</v>
       </c>
       <c r="I107">
         <v>12613</v>
       </c>
       <c r="J107">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>31.532499999999999</v>
       </c>
       <c r="K107">
         <v>12980</v>
       </c>
       <c r="L107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>32.450000000000003</v>
       </c>
       <c r="M107">
         <v>12553</v>
       </c>
       <c r="N107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>31.3825</v>
       </c>
       <c r="O107">
         <v>13536</v>
       </c>
       <c r="P107">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>33.840000000000003</v>
       </c>
     </row>
@@ -14827,53 +14841,53 @@
         <v>213</v>
       </c>
       <c r="C108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>13423</v>
       </c>
       <c r="D108">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>33.557499999999997</v>
       </c>
       <c r="E108">
         <v>13122</v>
       </c>
       <c r="F108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>32.805</v>
       </c>
       <c r="G108">
         <v>13122</v>
       </c>
       <c r="H108">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>32.805</v>
       </c>
       <c r="I108">
         <v>12695</v>
       </c>
       <c r="J108">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>31.737500000000001</v>
       </c>
       <c r="K108">
         <v>13057</v>
       </c>
       <c r="L108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>32.642499999999998</v>
       </c>
       <c r="M108">
         <v>12617</v>
       </c>
       <c r="N108">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>31.5425</v>
       </c>
       <c r="O108">
         <v>13616</v>
       </c>
       <c r="P108">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>34.04</v>
       </c>
     </row>
@@ -14885,53 +14899,53 @@
         <v>215</v>
       </c>
       <c r="C109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>13511</v>
       </c>
       <c r="D109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>33.777500000000003</v>
       </c>
       <c r="E109">
         <v>13203</v>
       </c>
       <c r="F109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>33.0075</v>
       </c>
       <c r="G109">
         <v>13203</v>
       </c>
       <c r="H109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>33.0075</v>
       </c>
       <c r="I109">
         <v>12768</v>
       </c>
       <c r="J109">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>31.92</v>
       </c>
       <c r="K109">
         <v>13137</v>
       </c>
       <c r="L109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>32.842500000000001</v>
       </c>
       <c r="M109">
         <v>12698</v>
       </c>
       <c r="N109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>31.745000000000001</v>
       </c>
       <c r="O109">
         <v>13704</v>
       </c>
       <c r="P109">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>34.26</v>
       </c>
     </row>
@@ -14943,53 +14957,53 @@
         <v>217</v>
       </c>
       <c r="C110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>13593</v>
       </c>
       <c r="D110">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>33.982500000000002</v>
       </c>
       <c r="E110">
         <v>13281</v>
       </c>
       <c r="F110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>33.202500000000001</v>
       </c>
       <c r="G110">
         <v>13281</v>
       </c>
       <c r="H110">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>33.202500000000001</v>
       </c>
       <c r="I110">
         <v>12834</v>
       </c>
       <c r="J110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>32.085000000000001</v>
       </c>
       <c r="K110">
         <v>13202</v>
       </c>
       <c r="L110">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>33.005000000000003</v>
       </c>
       <c r="M110">
         <v>12768</v>
       </c>
       <c r="N110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>31.92</v>
       </c>
       <c r="O110">
         <v>13770</v>
       </c>
       <c r="P110">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>34.424999999999997</v>
       </c>
     </row>
@@ -15001,53 +15015,53 @@
         <v>219</v>
       </c>
       <c r="C111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>13672</v>
       </c>
       <c r="D111">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>34.18</v>
       </c>
       <c r="E111">
         <v>13366</v>
       </c>
       <c r="F111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>33.414999999999999</v>
       </c>
       <c r="G111">
         <v>13366</v>
       </c>
       <c r="H111">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>33.414999999999999</v>
       </c>
       <c r="I111">
         <v>12908</v>
       </c>
       <c r="J111">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>32.270000000000003</v>
       </c>
       <c r="K111">
         <v>13280</v>
       </c>
       <c r="L111">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>33.200000000000003</v>
       </c>
       <c r="M111">
         <v>12848</v>
       </c>
       <c r="N111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>32.119999999999997</v>
       </c>
       <c r="O111">
         <v>13856</v>
       </c>
       <c r="P111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>34.64</v>
       </c>
     </row>
@@ -15059,53 +15073,53 @@
         <v>221</v>
       </c>
       <c r="C112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>13760</v>
       </c>
       <c r="D112">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>34.4</v>
       </c>
       <c r="E112">
         <v>13440</v>
       </c>
       <c r="F112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>33.6</v>
       </c>
       <c r="G112">
         <v>13440</v>
       </c>
       <c r="H112">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>33.6</v>
       </c>
       <c r="I112">
         <v>12991</v>
       </c>
       <c r="J112">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>32.477499999999999</v>
       </c>
       <c r="K112">
         <v>13356</v>
       </c>
       <c r="L112">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>33.39</v>
       </c>
       <c r="M112">
         <v>12920</v>
       </c>
       <c r="N112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>32.299999999999997</v>
       </c>
       <c r="O112">
         <v>13950</v>
       </c>
       <c r="P112">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>34.875</v>
       </c>
     </row>
@@ -15117,53 +15131,53 @@
         <v>223</v>
       </c>
       <c r="C113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>13843</v>
       </c>
       <c r="D113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>34.607500000000002</v>
       </c>
       <c r="E113">
         <v>13519</v>
       </c>
       <c r="F113">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>33.797499999999999</v>
       </c>
       <c r="G113">
         <v>13519</v>
       </c>
       <c r="H113">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>33.797499999999999</v>
       </c>
       <c r="I113">
         <v>13058</v>
       </c>
       <c r="J113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>32.645000000000003</v>
       </c>
       <c r="K113">
         <v>13434</v>
       </c>
       <c r="L113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>33.585000000000001</v>
       </c>
       <c r="M113">
         <v>12994</v>
       </c>
       <c r="N113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>32.484999999999999</v>
       </c>
       <c r="O113">
         <v>14034</v>
       </c>
       <c r="P113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>35.085000000000001</v>
       </c>
     </row>
@@ -15175,53 +15189,53 @@
         <v>225</v>
       </c>
       <c r="C114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>13916</v>
       </c>
       <c r="D114">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>34.79</v>
       </c>
       <c r="E114">
         <v>13594</v>
       </c>
       <c r="F114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>33.984999999999999</v>
       </c>
       <c r="G114">
         <v>13594</v>
       </c>
       <c r="H114">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>33.984999999999999</v>
       </c>
       <c r="I114">
         <v>13148</v>
       </c>
       <c r="J114">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>32.869999999999997</v>
       </c>
       <c r="K114">
         <v>13508</v>
       </c>
       <c r="L114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>33.770000000000003</v>
       </c>
       <c r="M114">
         <v>13088</v>
       </c>
       <c r="N114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>32.72</v>
       </c>
       <c r="O114">
         <v>14112</v>
       </c>
       <c r="P114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>35.28</v>
       </c>
     </row>
@@ -15233,53 +15247,53 @@
         <v>227</v>
       </c>
       <c r="C115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>13996</v>
       </c>
       <c r="D115">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>34.99</v>
       </c>
       <c r="E115">
         <v>13679</v>
       </c>
       <c r="F115">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>34.197499999999998</v>
       </c>
       <c r="G115">
         <v>13679</v>
       </c>
       <c r="H115">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>34.197499999999998</v>
       </c>
       <c r="I115">
         <v>13216</v>
       </c>
       <c r="J115">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>33.04</v>
       </c>
       <c r="K115">
         <v>13591</v>
       </c>
       <c r="L115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>33.977499999999999</v>
       </c>
       <c r="M115">
         <v>13167</v>
       </c>
       <c r="N115">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>32.917499999999997</v>
       </c>
       <c r="O115">
         <v>14201</v>
       </c>
       <c r="P115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>35.502499999999998</v>
       </c>
     </row>
@@ -15291,53 +15305,53 @@
         <v>229</v>
       </c>
       <c r="C116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>14079</v>
       </c>
       <c r="D116">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>35.197499999999998</v>
       </c>
       <c r="E116">
         <v>13760</v>
       </c>
       <c r="F116">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>34.4</v>
       </c>
       <c r="G116">
         <v>13760</v>
       </c>
       <c r="H116">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>34.4</v>
       </c>
       <c r="I116">
         <v>13289</v>
       </c>
       <c r="J116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>33.222499999999997</v>
       </c>
       <c r="K116">
         <v>13665</v>
       </c>
       <c r="L116">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>34.162500000000001</v>
       </c>
       <c r="M116">
         <v>13247</v>
       </c>
       <c r="N116">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>33.1175</v>
       </c>
       <c r="O116">
         <v>14278</v>
       </c>
       <c r="P116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>35.695</v>
       </c>
     </row>
@@ -15349,53 +15363,53 @@
         <v>231</v>
       </c>
       <c r="C117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>14158</v>
       </c>
       <c r="D117">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>35.395000000000003</v>
       </c>
       <c r="E117">
         <v>13850</v>
       </c>
       <c r="F117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>34.625</v>
       </c>
       <c r="G117">
         <v>13850</v>
       </c>
       <c r="H117">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>34.625</v>
       </c>
       <c r="I117">
         <v>13366</v>
       </c>
       <c r="J117">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>33.414999999999999</v>
       </c>
       <c r="K117">
         <v>13743</v>
       </c>
       <c r="L117">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>34.357500000000002</v>
       </c>
       <c r="M117">
         <v>13320</v>
       </c>
       <c r="N117">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>33.299999999999997</v>
       </c>
       <c r="O117">
         <v>14368</v>
       </c>
       <c r="P117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>35.92</v>
       </c>
     </row>
@@ -15407,46 +15421,46 @@
         <v>233</v>
       </c>
       <c r="C118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>14249</v>
       </c>
       <c r="D118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>35.622500000000002</v>
       </c>
       <c r="E118">
         <v>13934</v>
       </c>
       <c r="F118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>34.835000000000001</v>
       </c>
       <c r="G118">
         <v>13934</v>
       </c>
       <c r="H118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>34.835000000000001</v>
       </c>
       <c r="I118">
         <v>13440</v>
       </c>
       <c r="J118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>33.6</v>
       </c>
       <c r="K118">
         <v>13819</v>
       </c>
       <c r="L118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>34.547499999999999</v>
       </c>
       <c r="M118">
         <v>13396</v>
       </c>
       <c r="N118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>33.49</v>
       </c>
     </row>
@@ -15458,35 +15472,35 @@
         <v>14016</v>
       </c>
       <c r="F119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>35.04</v>
       </c>
       <c r="G119">
         <v>14016</v>
       </c>
       <c r="H119">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>35.04</v>
       </c>
       <c r="I119">
         <v>13509</v>
       </c>
       <c r="J119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>33.772500000000001</v>
       </c>
       <c r="K119">
         <v>13894</v>
       </c>
       <c r="L119">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>34.734999999999999</v>
       </c>
       <c r="M119">
         <v>13472</v>
       </c>
       <c r="N119">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>33.68</v>
       </c>
     </row>
@@ -15498,35 +15512,35 @@
         <v>14089</v>
       </c>
       <c r="F120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>35.222499999999997</v>
       </c>
       <c r="G120">
         <v>14089</v>
       </c>
       <c r="H120">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>35.222499999999997</v>
       </c>
       <c r="I120">
         <v>13596</v>
       </c>
       <c r="J120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>33.99</v>
       </c>
       <c r="K120">
         <v>13982</v>
       </c>
       <c r="L120">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>34.954999999999998</v>
       </c>
       <c r="M120">
         <v>13536</v>
       </c>
       <c r="N120">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>33.840000000000003</v>
       </c>
     </row>
@@ -15538,35 +15552,35 @@
         <v>14176</v>
       </c>
       <c r="F121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>35.44</v>
       </c>
       <c r="G121">
         <v>14176</v>
       </c>
       <c r="H121">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>35.44</v>
       </c>
       <c r="I121">
         <v>13671</v>
       </c>
       <c r="J121">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>34.177500000000002</v>
       </c>
       <c r="K121">
         <v>14056</v>
       </c>
       <c r="L121">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>35.14</v>
       </c>
       <c r="M121">
         <v>13610</v>
       </c>
       <c r="N121">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>34.024999999999999</v>
       </c>
     </row>
@@ -15578,21 +15592,21 @@
         <v>13741</v>
       </c>
       <c r="J122">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>34.352499999999999</v>
       </c>
       <c r="K122">
         <v>14136</v>
       </c>
       <c r="L122">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>35.340000000000003</v>
       </c>
       <c r="M122">
         <v>13696</v>
       </c>
       <c r="N122">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>34.24</v>
       </c>
     </row>
@@ -15604,21 +15618,21 @@
         <v>13817</v>
       </c>
       <c r="J123">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>34.542499999999997</v>
       </c>
       <c r="K123">
         <v>14211</v>
       </c>
       <c r="L123">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>35.527500000000003</v>
       </c>
       <c r="M123">
         <v>13772</v>
       </c>
       <c r="N123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>34.43</v>
       </c>
     </row>
@@ -15630,14 +15644,14 @@
         <v>13901</v>
       </c>
       <c r="J124">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>34.752499999999998</v>
       </c>
       <c r="M124">
         <v>13847</v>
       </c>
       <c r="N124">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>34.6175</v>
       </c>
     </row>
@@ -15649,14 +15663,14 @@
         <v>13981</v>
       </c>
       <c r="J125">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>34.952500000000001</v>
       </c>
       <c r="M125">
         <v>13920</v>
       </c>
       <c r="N125">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>34.799999999999997</v>
       </c>
     </row>
@@ -15668,14 +15682,14 @@
         <v>14055</v>
       </c>
       <c r="J126">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>35.137500000000003</v>
       </c>
       <c r="M126">
         <v>14000</v>
       </c>
       <c r="N126">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>35</v>
       </c>
     </row>
@@ -15687,14 +15701,14 @@
         <v>14136</v>
       </c>
       <c r="J127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>35.340000000000003</v>
       </c>
       <c r="M127">
         <v>14080</v>
       </c>
       <c r="N127">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>35.200000000000003</v>
       </c>
     </row>
@@ -15706,14 +15720,14 @@
         <v>14206</v>
       </c>
       <c r="J128">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>35.515000000000001</v>
       </c>
       <c r="M128">
         <v>14147</v>
       </c>
       <c r="N128">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>35.3675</v>
       </c>
     </row>
@@ -15725,7 +15739,7 @@
         <v>14237</v>
       </c>
       <c r="N129">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>35.592500000000001</v>
       </c>
     </row>
